--- a/res/merged_qualtrics.xlsx
+++ b/res/merged_qualtrics.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HV24"/>
+  <dimension ref="A1:HV28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19079,10 +19079,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45930.61171296296</v>
+        <v>45932.3803125</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45930.62027777778</v>
+        <v>45932.38810185185</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -19091,14 +19091,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>151.100.200.190</t>
+          <t>79.56.7.222</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>100</v>
       </c>
       <c r="F22" t="n">
-        <v>739</v>
+        <v>672</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -19106,11 +19106,11 @@
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45930.62028479166</v>
+        <v>45932.38810967593</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>R_2tMa1rHHBrWNnYu</t>
+          <t>R_8f2jGDP2oofFQcN</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -19145,7 +19145,7 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>Lorenzo Vitanostra</t>
+          <t>Ion Andrei</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -19165,12 +19165,12 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>Lorenzo Vitanostra</t>
+          <t>Ion Andrei</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>221</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -19200,12 +19200,12 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t xml:space="preserve">Romania </t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>Italian</t>
+          <t>Romanian</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
@@ -19221,164 +19221,164 @@
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
           <t>Disagree</t>
         </is>
       </c>
-      <c r="AK22" t="inlineStr">
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>Strongly DIsagree</t>
+        </is>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="AU22" t="inlineStr">
         <is>
           <t>Agree</t>
         </is>
       </c>
-      <c r="AL22" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="AM22" t="inlineStr">
+      <c r="AV22" t="inlineStr">
         <is>
           <t>Somewhat Agree</t>
         </is>
       </c>
-      <c r="AN22" t="inlineStr">
-        <is>
-          <t>Neither Agree nor Disagree</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
+      <c r="AW22" t="inlineStr">
         <is>
           <t>Somewhat Agree</t>
         </is>
       </c>
-      <c r="AP22" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="AQ22" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="AR22" t="inlineStr">
-        <is>
-          <t>Neither Agree nor Disagree</t>
-        </is>
-      </c>
-      <c r="AS22" t="inlineStr">
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Totally Agree</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="AZ22" t="inlineStr">
+        <is>
+          <t>Totally Agree</t>
+        </is>
+      </c>
+      <c r="BA22" t="inlineStr">
+        <is>
+          <t>Neither Agree not Disagree</t>
+        </is>
+      </c>
+      <c r="BB22" t="inlineStr">
+        <is>
+          <t>Totally Agree</t>
+        </is>
+      </c>
+      <c r="BC22" t="inlineStr">
+        <is>
+          <t>Neither Agree not Disagree</t>
+        </is>
+      </c>
+      <c r="BD22" t="inlineStr">
+        <is>
+          <t>Neither Agree not Disagree</t>
+        </is>
+      </c>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="BF22" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="BG22" t="inlineStr">
         <is>
           <t>Somewhat Agree</t>
         </is>
       </c>
-      <c r="AT22" t="inlineStr">
-        <is>
-          <t>Strongly Agree</t>
-        </is>
-      </c>
-      <c r="AU22" t="inlineStr">
-        <is>
-          <t>Neither Agree nor Disagree</t>
-        </is>
-      </c>
-      <c r="AV22" t="inlineStr">
-        <is>
-          <t>Disagree</t>
-        </is>
-      </c>
-      <c r="AW22" t="inlineStr">
-        <is>
-          <t>Disagree</t>
-        </is>
-      </c>
-      <c r="AX22" t="inlineStr">
+      <c r="BH22" t="inlineStr">
+        <is>
+          <t>Nearly Always</t>
+        </is>
+      </c>
+      <c r="BI22" t="inlineStr">
+        <is>
+          <t>Often</t>
+        </is>
+      </c>
+      <c r="BJ22" t="inlineStr">
+        <is>
+          <t>Sometimes</t>
+        </is>
+      </c>
+      <c r="BK22" t="inlineStr">
+        <is>
+          <t>Nearly Never</t>
+        </is>
+      </c>
+      <c r="BL22" t="inlineStr">
         <is>
           <t>Somewhat Agree</t>
         </is>
       </c>
-      <c r="AY22" t="inlineStr">
+      <c r="BM22" t="inlineStr">
         <is>
           <t>Somewhat Disagree</t>
         </is>
       </c>
-      <c r="AZ22" t="inlineStr">
-        <is>
-          <t>Totally Agree</t>
-        </is>
-      </c>
-      <c r="BA22" t="inlineStr">
+      <c r="BN22" t="inlineStr">
         <is>
           <t>Somewhat Disagree</t>
         </is>
       </c>
-      <c r="BB22" t="inlineStr">
-        <is>
-          <t>Totally Disagree</t>
-        </is>
-      </c>
-      <c r="BC22" t="inlineStr">
-        <is>
-          <t>Neither Agree not Disagree</t>
-        </is>
-      </c>
-      <c r="BD22" t="inlineStr">
-        <is>
-          <t>Totally Disagree</t>
-        </is>
-      </c>
-      <c r="BE22" t="inlineStr">
+      <c r="BO22" t="inlineStr">
         <is>
           <t>Somewhat Agree</t>
         </is>
       </c>
-      <c r="BF22" t="inlineStr">
-        <is>
-          <t>Totally Disagree</t>
-        </is>
-      </c>
-      <c r="BG22" t="inlineStr">
-        <is>
-          <t>Totally Agree</t>
-        </is>
-      </c>
-      <c r="BH22" t="inlineStr">
-        <is>
-          <t>Often</t>
-        </is>
-      </c>
-      <c r="BI22" t="inlineStr">
-        <is>
-          <t>Often</t>
-        </is>
-      </c>
-      <c r="BJ22" t="inlineStr">
-        <is>
-          <t>Rarely</t>
-        </is>
-      </c>
-      <c r="BK22" t="inlineStr">
-        <is>
-          <t>Nearly Never</t>
-        </is>
-      </c>
-      <c r="BL22" t="inlineStr">
-        <is>
-          <t>Totally Agree</t>
-        </is>
-      </c>
-      <c r="BM22" t="inlineStr">
-        <is>
-          <t>Somewhat Agree</t>
-        </is>
-      </c>
-      <c r="BN22" t="inlineStr">
-        <is>
-          <t>Somewhat Agree</t>
-        </is>
-      </c>
-      <c r="BO22" t="inlineStr">
-        <is>
-          <t>Somewhat Agree</t>
-        </is>
-      </c>
       <c r="BP22" t="inlineStr">
         <is>
           <t>Never</t>
@@ -19386,12 +19386,12 @@
       </c>
       <c r="BQ22" t="inlineStr">
         <is>
-          <t>2 to 3 times a week</t>
+          <t>Multiple times a day</t>
         </is>
       </c>
       <c r="BR22" t="inlineStr">
         <is>
-          <t>2 to 3 times a week</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="BS22" t="inlineStr">
@@ -19401,7 +19401,7 @@
       </c>
       <c r="BT22" t="inlineStr">
         <is>
-          <t>Never</t>
+          <t>1 time a week</t>
         </is>
       </c>
       <c r="BU22" t="inlineStr">
@@ -19411,97 +19411,97 @@
       </c>
       <c r="BV22" t="inlineStr">
         <is>
-          <t>Very slightly or not at all</t>
+          <t>A little</t>
         </is>
       </c>
       <c r="BW22" t="inlineStr">
         <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="BX22" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="BY22" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="BZ22" t="inlineStr">
+        <is>
           <t>Quite a bit</t>
         </is>
       </c>
-      <c r="BX22" t="inlineStr">
-        <is>
-          <t>Very slightly or not at all</t>
-        </is>
-      </c>
-      <c r="BY22" t="inlineStr">
+      <c r="CA22" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CB22" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="CC22" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CD22" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CE22" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CF22" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CG22" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CH22" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CI22" t="inlineStr">
         <is>
           <t>Quite a bit</t>
         </is>
       </c>
-      <c r="BZ22" t="inlineStr">
-        <is>
-          <t>Very slightly or not at all</t>
-        </is>
-      </c>
-      <c r="CA22" t="inlineStr">
-        <is>
-          <t>Very slightly or not at all</t>
-        </is>
-      </c>
-      <c r="CB22" t="inlineStr">
-        <is>
-          <t>Very slightly or not at all</t>
-        </is>
-      </c>
-      <c r="CC22" t="inlineStr">
-        <is>
-          <t>Extremely</t>
-        </is>
-      </c>
-      <c r="CD22" t="inlineStr">
+      <c r="CJ22" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CK22" t="inlineStr">
         <is>
           <t>Quite a bit</t>
         </is>
       </c>
-      <c r="CE22" t="inlineStr">
-        <is>
-          <t>Very slightly or not at all</t>
-        </is>
-      </c>
-      <c r="CF22" t="inlineStr">
-        <is>
-          <t>Very slightly or not at all</t>
-        </is>
-      </c>
-      <c r="CG22" t="inlineStr">
-        <is>
-          <t>Very slightly or not at all</t>
-        </is>
-      </c>
-      <c r="CH22" t="inlineStr">
-        <is>
-          <t>Quite a bit</t>
-        </is>
-      </c>
-      <c r="CI22" t="inlineStr">
-        <is>
-          <t>A little</t>
-        </is>
-      </c>
-      <c r="CJ22" t="inlineStr">
-        <is>
-          <t>Quite a bit</t>
-        </is>
-      </c>
-      <c r="CK22" t="inlineStr">
-        <is>
-          <t>Moderately</t>
-        </is>
-      </c>
       <c r="CL22" t="inlineStr">
         <is>
-          <t>A little</t>
+          <t>Moderately</t>
         </is>
       </c>
       <c r="CM22" t="inlineStr">
         <is>
-          <t>Quite a bit</t>
+          <t>A little</t>
         </is>
       </c>
       <c r="CN22" t="inlineStr">
         <is>
-          <t>Very slightly or not at all</t>
+          <t>A little</t>
         </is>
       </c>
       <c r="CO22" t="inlineStr">
@@ -19511,7 +19511,7 @@
       </c>
       <c r="CP22" t="inlineStr">
         <is>
-          <t>Never</t>
+          <t>Once in a while</t>
         </is>
       </c>
       <c r="CQ22" t="inlineStr">
@@ -19520,10 +19520,10 @@
         </is>
       </c>
       <c r="CR22" s="2" t="n">
-        <v>45930.66528935185</v>
+        <v>45932.54018518519</v>
       </c>
       <c r="CS22" s="2" t="n">
-        <v>45930.67384259259</v>
+        <v>45932.55487268518</v>
       </c>
       <c r="CT22" t="inlineStr">
         <is>
@@ -19539,7 +19539,7 @@
         <v>100</v>
       </c>
       <c r="CW22" t="n">
-        <v>739</v>
+        <v>1268</v>
       </c>
       <c r="CX22" t="inlineStr">
         <is>
@@ -19547,11 +19547,11 @@
         </is>
       </c>
       <c r="CY22" s="2" t="n">
-        <v>45930.67390460648</v>
+        <v>45932.55494247685</v>
       </c>
       <c r="CZ22" t="inlineStr">
         <is>
-          <t>R_2EQlwruSd4Gpw1Y</t>
+          <t>R_2VqY2CvM1AsgBcv</t>
         </is>
       </c>
       <c r="DA22" t="inlineStr"/>
@@ -19581,27 +19581,27 @@
       </c>
       <c r="DJ22" t="inlineStr">
         <is>
-          <t>Extremely</t>
+          <t>Moderately</t>
         </is>
       </c>
       <c r="DK22" t="inlineStr">
         <is>
-          <t>Moderately</t>
+          <t>A little</t>
         </is>
       </c>
       <c r="DL22" t="inlineStr">
         <is>
-          <t>Quite a bit</t>
+          <t>A little</t>
         </is>
       </c>
       <c r="DM22" t="inlineStr">
         <is>
-          <t>Quite a bit</t>
+          <t>A little</t>
         </is>
       </c>
       <c r="DN22" t="inlineStr">
         <is>
-          <t>Quite a bit</t>
+          <t>A little</t>
         </is>
       </c>
       <c r="DO22" t="inlineStr">
@@ -19611,32 +19611,32 @@
       </c>
       <c r="DP22" t="inlineStr">
         <is>
-          <t>Moderately</t>
+          <t>Very slightly or not at all</t>
         </is>
       </c>
       <c r="DQ22" t="inlineStr">
         <is>
-          <t>Quite a bit</t>
+          <t>Moderately</t>
         </is>
       </c>
       <c r="DR22" t="inlineStr">
         <is>
-          <t>Moderately</t>
+          <t>A little</t>
         </is>
       </c>
       <c r="DS22" t="inlineStr">
         <is>
-          <t>Quite a bit</t>
+          <t>A little</t>
         </is>
       </c>
       <c r="DT22" t="inlineStr">
         <is>
-          <t>Moderately</t>
+          <t>A little</t>
         </is>
       </c>
       <c r="DU22" t="inlineStr">
         <is>
-          <t>Very slightly or not at all</t>
+          <t>A little</t>
         </is>
       </c>
       <c r="DV22" t="inlineStr">
@@ -19651,7 +19651,7 @@
       </c>
       <c r="DX22" t="inlineStr">
         <is>
-          <t>Quite a bit</t>
+          <t>Moderately</t>
         </is>
       </c>
       <c r="DY22" t="inlineStr">
@@ -19661,17 +19661,17 @@
       </c>
       <c r="DZ22" t="inlineStr">
         <is>
-          <t>A little</t>
+          <t>Moderately</t>
         </is>
       </c>
       <c r="EA22" t="inlineStr">
         <is>
-          <t>Quite a bit</t>
+          <t>A little</t>
         </is>
       </c>
       <c r="EB22" t="inlineStr">
         <is>
-          <t>Very slightly or not at all</t>
+          <t>A little</t>
         </is>
       </c>
       <c r="EC22" t="inlineStr"/>
@@ -19710,16 +19710,16 @@
       <c r="FJ22" t="inlineStr"/>
       <c r="FK22" t="inlineStr">
         <is>
-          <t>F_1l0K2NXoDZwogE9</t>
+          <t>F_2uWe3pCJQ4hKnFk</t>
         </is>
       </c>
       <c r="FL22" t="inlineStr">
         <is>
-          <t>1759240867751.webm</t>
+          <t>1759402948866.webm</t>
         </is>
       </c>
       <c r="FM22" t="n">
-        <v>3078414</v>
+        <v>5848905</v>
       </c>
       <c r="FN22" t="inlineStr">
         <is>
@@ -19728,33 +19728,33 @@
       </c>
       <c r="FO22" t="inlineStr">
         <is>
-          <t>Barlo Barlolosaa. I'm OK. Did you know that? Yes, I would dine with a virtual character again. Uh, I think it does mean, uh. Kind of experience. It has been really. Nice and warm and the chatter has been going on quite flowing.</t>
+          <t>Uh, yes, I would dine again with um virtual character, uh, basically because, uh, uh, this experience was, uh, was very good. Uh, the, the virtual character also, uh, found some interesting common, so we, we talked about them, uh, like movies, uh, and TV series. And, um, um, the main reason, um. For which I would not die again is because in some moments there is an awkward silence which that makes me makes me a little awkward. Um, another interesting, uh, thing is that, um, uh, I like the fact that if you don't have an argument to talk about, it will come up with something, and, uh, in my experience, uh, it, uh, it came up with, uh, with something interesting, so, uh, made the conversation more, uh, um, it made it easier.</t>
         </is>
       </c>
       <c r="FP22" t="inlineStr">
         <is>
-          <t>17592414-263e-4a36-ad2d-0d864e296dda</t>
+          <t>17594039-48c8-43c3-8ea0-671af8388444</t>
         </is>
       </c>
       <c r="FQ22" t="inlineStr">
         <is>
-          <t>Neutral,Positive</t>
+          <t>Neutral,Positive,Negative,Very Positive</t>
         </is>
       </c>
       <c r="FR22" t="inlineStr"/>
       <c r="FS22" t="inlineStr"/>
       <c r="FT22" t="inlineStr">
         <is>
-          <t>F_2aaxWbiB0HzsNW0</t>
+          <t>F_3Poj3ZZ4qTDM4Fl</t>
         </is>
       </c>
       <c r="FU22" t="inlineStr">
         <is>
-          <t>1759240952185.webm</t>
+          <t>1759403066818.webm</t>
         </is>
       </c>
       <c r="FV22" t="n">
-        <v>3713834</v>
+        <v>6108748</v>
       </c>
       <c r="FW22" t="inlineStr">
         <is>
@@ -19763,33 +19763,33 @@
       </c>
       <c r="FX22" t="inlineStr">
         <is>
-          <t>I think it would be useful in. A context where there's uh someone alone, maybe. Uh, another man or a woman. Or Maybe for people who for some reason. Can't get. Out from their bed or sofa, so if someone has a broken leg. And for whatever reason he's home alone. Having the companion of a virtual character, I think it could be really useful.</t>
+          <t>The context in which I think the virtual dining companion would be useful is uh basically when you, when you eat alone. So instead of staying on phone or tablet, uh, scrolling uh videos like this, um, it, it can be useful to have a conversation and so if you don't have someone, you could, uh, speak with the virtual companion. Uh, in fact, uh, it was um. A good, uh, company, uh, because it tries to find the, um, uh interesting arguments to talk about. So, uh, you instead of like I was saying, scrolling, you have, um, a conversation with um someone which is virtual but uh it gives you the feeling of uh of someone because it um. It also stimulates you to answer his questions and. And also made me um interested in what in um his answer.</t>
         </is>
       </c>
       <c r="FY22" t="inlineStr">
         <is>
-          <t>17592414-278a-49b4-bca5-41c78695e65e</t>
+          <t>17594039-4948-4327-9b4a-7695ffeb999b</t>
         </is>
       </c>
       <c r="FZ22" t="inlineStr">
         <is>
-          <t>Neutral,Negative</t>
+          <t>Neutral,Positive,Negative</t>
         </is>
       </c>
       <c r="GA22" t="inlineStr"/>
       <c r="GB22" t="inlineStr"/>
       <c r="GC22" t="inlineStr">
         <is>
-          <t>F_2fcGJTdNTmCfpk7</t>
+          <t>F_1FwwJyoTx2d3vIu</t>
         </is>
       </c>
       <c r="GD22" t="inlineStr">
         <is>
-          <t>1759241044062.webm</t>
+          <t>1759403253542.webm</t>
         </is>
       </c>
       <c r="GE22" t="n">
-        <v>2952288</v>
+        <v>5914512</v>
       </c>
       <c r="GF22" t="inlineStr">
         <is>
@@ -19798,33 +19798,33 @@
       </c>
       <c r="GG22" t="inlineStr">
         <is>
-          <t>I think it should be as much as humanlike it can, so it has to be kind, um. It has to have, it has to show interest. Um, during the chat and uh. I don't know, it has to be warming. It, it doesn't have to feel mechanic, so. The more humanlike it can be, the better.</t>
+          <t>So I uh think um he should be able to answer uh promptly so you don't have to wait for, for its answer and also it should uh be able to um come up with the arguments to talk about, uh, in order to avoid um awkward silences uh which could uh make you don't want to talk it anymore. Uh, also, I think, um, uh, it should be able to, to make more questions about yourself, uh, in order to, to make you feel like, uh, it is really interested, uh, interested in, uh, what you're saying. Uh, another thing maybe it should be, uh, able to, to have, um, a lot of arguments to talk about. So if we are talking about something I don't like, I can, uh, easily change it and find, uh, uh, interesting answers from the virtual companion.</t>
         </is>
       </c>
       <c r="GH22" t="inlineStr">
         <is>
-          <t>17592414-28c0-492a-9065-389637ae0d9e</t>
+          <t>17594039-48e2-4282-bfdd-8fe8cb74abc9</t>
         </is>
       </c>
       <c r="GI22" t="inlineStr">
         <is>
-          <t>Neutral,Positive,Negative</t>
+          <t>Neutral,Negative,Positive</t>
         </is>
       </c>
       <c r="GJ22" t="inlineStr"/>
       <c r="GK22" t="inlineStr"/>
       <c r="GL22" t="inlineStr">
         <is>
-          <t>F_datLXyTIOEOhst3</t>
+          <t>F_20ZH1BkD8rqhkf5</t>
         </is>
       </c>
       <c r="GM22" t="inlineStr">
         <is>
-          <t>1759241182249.webm</t>
+          <t>1759403440336.webm</t>
         </is>
       </c>
       <c r="GN22" t="n">
-        <v>3053586</v>
+        <v>5155783</v>
       </c>
       <c r="GO22" t="inlineStr">
         <is>
@@ -19833,33 +19833,33 @@
       </c>
       <c r="GP22" t="inlineStr">
         <is>
-          <t>I would say that it has to understand, comprehend, and Keep on chatting about. Um, the topics chosen by the one who's talking and uh. I guess that. It would be slightly better if there is um. Some kind of preference for uh light topics in the end of it all it's just a chat during lunchtime, so. I think that light topics are better.</t>
+          <t>Well, the topics it should speak about, talk about, I think are the generic ones like movies, uh, nature, traveling, or sports, uh, so, uh, I think the um the topics should be, uh. Uh, those, um, which can help to have a, a good conversation and a longer conversation also interesting and, uh, so, uh, I think it should, uh, understand the, the topics, the, the person in front of the, of it, uh, is interested of and trying to, to steer the conversation in uh, in that, uh, direction. Uh, I also think it should, uh, speak about news because, uh, in this way, you, uh, also have companion but also you can, uh, be informed.</t>
         </is>
       </c>
       <c r="GQ22" t="inlineStr">
         <is>
-          <t>17592414-2865-4549-8c26-428579a36d9b</t>
+          <t>17594039-48f1-4fb5-9e83-db5ecbe05322</t>
         </is>
       </c>
       <c r="GR22" t="inlineStr">
         <is>
-          <t>Neutral,Negative</t>
+          <t>Neutral,Positive</t>
         </is>
       </c>
       <c r="GS22" t="inlineStr"/>
       <c r="GT22" t="inlineStr"/>
       <c r="GU22" t="inlineStr">
         <is>
-          <t>F_1Qi3z2sMI1QZfit</t>
+          <t>F_1ItkkrwiiBZyZG4</t>
         </is>
       </c>
       <c r="GV22" t="inlineStr">
         <is>
-          <t>1759241254142.webm</t>
+          <t>1759403523763.webm</t>
         </is>
       </c>
       <c r="GW22" t="n">
-        <v>2756470</v>
+        <v>5568409</v>
       </c>
       <c r="GX22" t="inlineStr">
         <is>
@@ -19868,33 +19868,33 @@
       </c>
       <c r="GY22" t="inlineStr">
         <is>
-          <t>I can't see proper disadvantages, I guess that. Maybe going on um. After a massive usage of, um, these virtual characters, there can be, mm. A preference, maybe for virtual characters instead of. Humans, human companion. I don't know.</t>
+          <t>Well, I think there are potential disadvantages of uh such companions and uh the main one, I think it is that uh you would like it so much that you wouldn't uh need uh to have real conversation anymore, so. The, I think the main danger is that you will be, uh, you will find yourself, um, preferring to talk with the virtual companion instead of a, of a real person. And that's I think would would be would be very bad. Other disadvantages, um, well, maybe if, uh, if it doesn't work well, um. It could be, it could be a little bit irritating for the people in front of it. So I, I mean if if it's uh slow or it doesn't come up with interesting arguments.</t>
         </is>
       </c>
       <c r="GZ22" t="inlineStr">
         <is>
-          <t>17592414-26de-4e3f-956d-adf2802bb3b8</t>
+          <t>17594039-5039-4e91-99f8-4eb03793d9c5</t>
         </is>
       </c>
       <c r="HA22" t="inlineStr">
         <is>
-          <t>Neutral,Negative</t>
+          <t>Neutral,Negative,Very Negative</t>
         </is>
       </c>
       <c r="HB22" t="inlineStr"/>
       <c r="HC22" t="inlineStr"/>
       <c r="HD22" t="inlineStr">
         <is>
-          <t>F_31GeVnR9YuYqHyj</t>
+          <t>F_264NljTKmTnoWS4</t>
         </is>
       </c>
       <c r="HE22" t="inlineStr">
         <is>
-          <t>1759241316238.webm</t>
+          <t>1759403737457.webm</t>
         </is>
       </c>
       <c r="HF22" t="n">
-        <v>3027857</v>
+        <v>5322780</v>
       </c>
       <c r="HG22" t="inlineStr">
         <is>
@@ -19903,12 +19903,12 @@
       </c>
       <c r="HH22" t="inlineStr">
         <is>
-          <t>Not in the near future, I think that maybe, um. As I was talking in the previous question, there uh may be the risk of a preference. In the company of virtual characters instead of humans, but it's something quite dystopical and also. Really, really far in the future, so I don't think that there are many issues or dangers in using virtual characters.</t>
+          <t>So I don't think uh it could be um it would represent a a risk or danger, but I think that um uh people who uses them should be um um aware that they are of course not real people uh and uh to so uh to don't prefer their companion to to to to that from uh from real uh real people. Uh, so yeah, this is the, the, the main risk I find, uh, which could happen is to actually, uh, prefer a virtual companion instead of a, of a real one. Also, if it is so, um, another risk I, I could think about is that if it would become so um entertaining to, to stay too much time talking with it. Also, this one I think could be, could be um a danger.</t>
         </is>
       </c>
       <c r="HI22" t="inlineStr">
         <is>
-          <t>17592414-2698-4ba5-ab6c-de3ebc6a53f7</t>
+          <t>17594039-49c0-4188-8b88-ca016e72349f</t>
         </is>
       </c>
       <c r="HJ22" t="inlineStr">
@@ -19920,16 +19920,16 @@
       <c r="HL22" t="inlineStr"/>
       <c r="HM22" t="inlineStr">
         <is>
-          <t>F_YXlE63wkE3BeBPz</t>
+          <t>F_pmcTtiWJmfkAjkJ</t>
         </is>
       </c>
       <c r="HN22" t="inlineStr">
         <is>
-          <t>1759241384404.webm</t>
+          <t>1759403823894.webm</t>
         </is>
       </c>
       <c r="HO22" t="n">
-        <v>3489530</v>
+        <v>5529195</v>
       </c>
       <c r="HP22" t="inlineStr">
         <is>
@@ -19938,17 +19938,17 @@
       </c>
       <c r="HQ22" t="inlineStr">
         <is>
-          <t>I don't think that there have been major differences, um, it was uh. Way better than I expected, to be honest. It was like chatting. Almost with, um, I wouldn't say a friend, but with someone, it's like the those kind of small talks that anyone has been going through, so. I think that, um, it felt, uh, I felt the difference when I switched over with talking with a friend of mine, but, uh, I thought that it would have been uh way bigger of a difference.</t>
+          <t>Well, these last 30 minutes, I don't think they affected my sense of connection to others, but uh I think they made me, um, think about, uh, about connection. I mean, uh, speaking with a, with a virtual companion was, uh, a little bit strange but also interesting because, um. In some parts it uh, it was talking about uh topics I'm interested to, so I was a little bit uh. I don't know, also curios, but uh, also, um, it, it was also awkward. In some parts and um. I think it made me or. Appreciate the the companion because and the connection with others because uh uh I think I saw the. How important it is to to have a a a real conversation.</t>
         </is>
       </c>
       <c r="HR22" t="inlineStr">
         <is>
-          <t>17592414-288f-43cf-a79d-15868bd70090</t>
+          <t>17594039-47c5-4ed9-8d6b-b71491074bc5</t>
         </is>
       </c>
       <c r="HS22" t="inlineStr">
         <is>
-          <t>Neutral,Positive</t>
+          <t>Neutral,Positive,Negative,Very Negative</t>
         </is>
       </c>
       <c r="HT22" t="inlineStr"/>
@@ -19961,10 +19961,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45930.7543287037</v>
+        <v>45932.51141203703</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45930.76085648148</v>
+        <v>45932.53056712963</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -19973,14 +19973,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>78.213.9.45</t>
+          <t>95.238.25.47</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>100</v>
       </c>
       <c r="F23" t="n">
-        <v>563</v>
+        <v>1654</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -19988,11 +19988,11 @@
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45930.76086675926</v>
+        <v>45932.53057459491</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>R_8m2Usrw7OLbV6rq</t>
+          <t>R_2FRMgnC629A17Hh</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -20000,10 +20000,10 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>43.1479</v>
+        <v>41.8905</v>
       </c>
       <c r="O23" t="n">
-        <v>12.1097</v>
+        <v>12.5127</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
@@ -20027,7 +20027,7 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>Valerio Bernabei</t>
+          <t>Gianpaolo De Lucia</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -20047,17 +20047,17 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Valerio Bernabei </t>
+          <t>Gianpaolo De Lucia</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>224</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>18-24</t>
+          <t>40+</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -20082,7 +20082,7 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>Italt</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
@@ -20092,14 +20092,10 @@
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AH23" t="inlineStr">
-        <is>
-          <t>Non-Social</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr"/>
       <c r="AI23" t="inlineStr">
         <is>
           <t>Somewhat Agree</t>
@@ -20107,309 +20103,309 @@
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AU23" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AV23" t="inlineStr">
+        <is>
           <t>Disagree</t>
         </is>
       </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Neither Agree nor Disagree</t>
-        </is>
-      </c>
-      <c r="AL23" t="inlineStr">
+      <c r="AW23" t="inlineStr">
         <is>
           <t>Agree</t>
         </is>
       </c>
-      <c r="AM23" t="inlineStr">
-        <is>
-          <t>Neither Agree nor Disagree</t>
-        </is>
-      </c>
-      <c r="AN23" t="inlineStr">
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="AZ23" t="inlineStr">
+        <is>
+          <t>Neither Agree not Disagree</t>
+        </is>
+      </c>
+      <c r="BA23" t="inlineStr">
+        <is>
+          <t>Totally Disagree</t>
+        </is>
+      </c>
+      <c r="BB23" t="inlineStr">
+        <is>
+          <t>Totally Disagree</t>
+        </is>
+      </c>
+      <c r="BC23" t="inlineStr">
+        <is>
+          <t>Neither Agree not Disagree</t>
+        </is>
+      </c>
+      <c r="BD23" t="inlineStr">
+        <is>
+          <t>Totally Disagree</t>
+        </is>
+      </c>
+      <c r="BE23" t="inlineStr">
         <is>
           <t>Somewhat Agree</t>
         </is>
       </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Neither Agree nor Disagree</t>
-        </is>
-      </c>
-      <c r="AP23" t="inlineStr">
+      <c r="BF23" t="inlineStr">
+        <is>
+          <t>Totally Disagree</t>
+        </is>
+      </c>
+      <c r="BG23" t="inlineStr">
         <is>
           <t>Somewhat Agree</t>
         </is>
       </c>
-      <c r="AQ23" t="inlineStr">
+      <c r="BH23" t="inlineStr">
+        <is>
+          <t>Rarely</t>
+        </is>
+      </c>
+      <c r="BI23" t="inlineStr">
+        <is>
+          <t>Nearly Always</t>
+        </is>
+      </c>
+      <c r="BJ23" t="inlineStr">
+        <is>
+          <t>Often</t>
+        </is>
+      </c>
+      <c r="BK23" t="inlineStr">
+        <is>
+          <t>Nearly Never</t>
+        </is>
+      </c>
+      <c r="BL23" t="inlineStr">
         <is>
           <t>Somewhat Agree</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
-        <is>
-          <t>Disagree</t>
-        </is>
-      </c>
-      <c r="AS23" t="inlineStr">
-        <is>
-          <t>Somewhat Agree</t>
-        </is>
-      </c>
-      <c r="AT23" t="inlineStr">
-        <is>
-          <t>Somewhat Agree</t>
-        </is>
-      </c>
-      <c r="AU23" t="inlineStr">
-        <is>
-          <t>Neither Agree nor Disagree</t>
-        </is>
-      </c>
-      <c r="AV23" t="inlineStr">
-        <is>
-          <t>Neither Agree nor Disagree</t>
-        </is>
-      </c>
-      <c r="AW23" t="inlineStr">
-        <is>
-          <t>Neither Agree nor Disagree</t>
-        </is>
-      </c>
-      <c r="AX23" t="inlineStr">
-        <is>
-          <t>Somewhat Disagree</t>
-        </is>
-      </c>
-      <c r="AY23" t="inlineStr">
-        <is>
-          <t>Somewhat Disagree</t>
-        </is>
-      </c>
-      <c r="AZ23" t="inlineStr">
-        <is>
-          <t>Somewhat Agree</t>
-        </is>
-      </c>
-      <c r="BA23" t="inlineStr">
-        <is>
-          <t>Somewhat Disagree</t>
-        </is>
-      </c>
-      <c r="BB23" t="inlineStr">
+      <c r="BM23" t="inlineStr">
         <is>
           <t>Totally Disagree</t>
         </is>
       </c>
-      <c r="BC23" t="inlineStr">
-        <is>
-          <t>Neither Agree not Disagree</t>
-        </is>
-      </c>
-      <c r="BD23" t="inlineStr">
-        <is>
-          <t>Somewhat Disagree</t>
-        </is>
-      </c>
-      <c r="BE23" t="inlineStr">
-        <is>
-          <t>Somewhat Agree</t>
-        </is>
-      </c>
-      <c r="BF23" t="inlineStr">
-        <is>
-          <t>Somewhat Agree</t>
-        </is>
-      </c>
-      <c r="BG23" t="inlineStr">
-        <is>
-          <t>Somewhat Agree</t>
-        </is>
-      </c>
-      <c r="BH23" t="inlineStr">
-        <is>
-          <t>Rarely</t>
-        </is>
-      </c>
-      <c r="BI23" t="inlineStr">
-        <is>
-          <t>Often</t>
-        </is>
-      </c>
-      <c r="BJ23" t="inlineStr">
-        <is>
-          <t>Sometimes</t>
-        </is>
-      </c>
-      <c r="BK23" t="inlineStr">
-        <is>
-          <t>Sometimes</t>
-        </is>
-      </c>
-      <c r="BL23" t="inlineStr">
-        <is>
-          <t>Neither Agree nor Disagree</t>
-        </is>
-      </c>
-      <c r="BM23" t="inlineStr">
-        <is>
-          <t>Neither Agree nor Disagree</t>
-        </is>
-      </c>
       <c r="BN23" t="inlineStr">
         <is>
-          <t>Neither Agree nor Disagree</t>
+          <t>Totally Disagree</t>
         </is>
       </c>
       <c r="BO23" t="inlineStr">
         <is>
-          <t>Neither Agree nor Disagree</t>
+          <t>Totally Agree</t>
         </is>
       </c>
       <c r="BP23" t="inlineStr">
         <is>
+          <t>Once a day</t>
+        </is>
+      </c>
+      <c r="BQ23" t="inlineStr">
+        <is>
+          <t>Never</t>
+        </is>
+      </c>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>Never</t>
+        </is>
+      </c>
+      <c r="BS23" t="inlineStr">
+        <is>
           <t>Multiple times a day</t>
         </is>
       </c>
-      <c r="BQ23" t="inlineStr">
+      <c r="BT23" t="inlineStr">
         <is>
           <t>Never</t>
         </is>
       </c>
-      <c r="BR23" t="inlineStr">
+      <c r="BU23" t="inlineStr">
+        <is>
+          <t>Extremely</t>
+        </is>
+      </c>
+      <c r="BV23" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="BW23" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="BX23" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="BY23" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="BZ23" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="CA23" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CB23" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="CC23" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="CD23" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="CE23" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CF23" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CG23" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="CH23" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="CI23" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CJ23" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="CK23" t="inlineStr">
+        <is>
+          <t>Extremely</t>
+        </is>
+      </c>
+      <c r="CL23" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="CM23" t="inlineStr">
+        <is>
+          <t>Extremely</t>
+        </is>
+      </c>
+      <c r="CN23" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CO23" t="inlineStr">
         <is>
           <t>Never</t>
         </is>
       </c>
-      <c r="BS23" t="inlineStr">
-        <is>
-          <t>Multiple times a day</t>
-        </is>
-      </c>
-      <c r="BT23" t="inlineStr">
-        <is>
-          <t>Multiple times a day</t>
-        </is>
-      </c>
-      <c r="BU23" t="inlineStr">
-        <is>
-          <t>Quite a bit</t>
-        </is>
-      </c>
-      <c r="BV23" t="inlineStr">
-        <is>
-          <t>A little</t>
-        </is>
-      </c>
-      <c r="BW23" t="inlineStr">
-        <is>
-          <t>Moderately</t>
-        </is>
-      </c>
-      <c r="BX23" t="inlineStr">
-        <is>
-          <t>Moderately</t>
-        </is>
-      </c>
-      <c r="BY23" t="inlineStr">
-        <is>
-          <t>Moderately</t>
-        </is>
-      </c>
-      <c r="BZ23" t="inlineStr">
-        <is>
-          <t>Moderately</t>
-        </is>
-      </c>
-      <c r="CA23" t="inlineStr">
-        <is>
-          <t>A little</t>
-        </is>
-      </c>
-      <c r="CB23" t="inlineStr">
-        <is>
-          <t>Very slightly or not at all</t>
-        </is>
-      </c>
-      <c r="CC23" t="inlineStr">
-        <is>
-          <t>Moderately</t>
-        </is>
-      </c>
-      <c r="CD23" t="inlineStr">
-        <is>
-          <t>A little</t>
-        </is>
-      </c>
-      <c r="CE23" t="inlineStr">
-        <is>
-          <t>Very slightly or not at all</t>
-        </is>
-      </c>
-      <c r="CF23" t="inlineStr">
-        <is>
-          <t>A little</t>
-        </is>
-      </c>
-      <c r="CG23" t="inlineStr">
-        <is>
-          <t>A little</t>
-        </is>
-      </c>
-      <c r="CH23" t="inlineStr">
-        <is>
-          <t>A little</t>
-        </is>
-      </c>
-      <c r="CI23" t="inlineStr">
-        <is>
-          <t>Very slightly or not at all</t>
-        </is>
-      </c>
-      <c r="CJ23" t="inlineStr">
-        <is>
-          <t>Moderately</t>
-        </is>
-      </c>
-      <c r="CK23" t="inlineStr">
-        <is>
-          <t>Moderately</t>
-        </is>
-      </c>
-      <c r="CL23" t="inlineStr">
-        <is>
-          <t>Very slightly or not at all</t>
-        </is>
-      </c>
-      <c r="CM23" t="inlineStr">
-        <is>
-          <t>Quite a bit</t>
-        </is>
-      </c>
-      <c r="CN23" t="inlineStr">
-        <is>
-          <t>Very slightly or not at all</t>
-        </is>
-      </c>
-      <c r="CO23" t="inlineStr">
+      <c r="CP23" t="inlineStr">
         <is>
           <t>Once in a while</t>
         </is>
       </c>
-      <c r="CP23" t="inlineStr">
+      <c r="CQ23" t="inlineStr">
         <is>
           <t>Once in a while</t>
         </is>
       </c>
-      <c r="CQ23" t="inlineStr">
-        <is>
-          <t>Once in a while</t>
-        </is>
-      </c>
       <c r="CR23" s="2" t="n">
-        <v>45930.77659722222</v>
+        <v>45932.58053240741</v>
       </c>
       <c r="CS23" s="2" t="n">
-        <v>45930.784375</v>
+        <v>45932.59293981481</v>
       </c>
       <c r="CT23" t="inlineStr">
         <is>
@@ -20425,7 +20421,7 @@
         <v>100</v>
       </c>
       <c r="CW23" t="n">
-        <v>671</v>
+        <v>1071</v>
       </c>
       <c r="CX23" t="inlineStr">
         <is>
@@ -20433,11 +20429,11 @@
         </is>
       </c>
       <c r="CY23" s="2" t="n">
-        <v>45930.78458179398</v>
+        <v>45932.59301179398</v>
       </c>
       <c r="CZ23" t="inlineStr">
         <is>
-          <t>R_8LURKpnw09xBW3V</t>
+          <t>R_815wlFdTpCcLmo1</t>
         </is>
       </c>
       <c r="DA23" t="inlineStr"/>
@@ -20467,82 +20463,82 @@
       </c>
       <c r="DJ23" t="inlineStr">
         <is>
-          <t>Very slightly or not at all</t>
+          <t>A little</t>
         </is>
       </c>
       <c r="DK23" t="inlineStr">
         <is>
+          <t>Extremely</t>
+        </is>
+      </c>
+      <c r="DL23" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="DM23" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="DN23" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="DO23" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="DP23" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="DQ23" t="inlineStr">
+        <is>
+          <t>Extremely</t>
+        </is>
+      </c>
+      <c r="DR23" t="inlineStr">
+        <is>
+          <t>Extremely</t>
+        </is>
+      </c>
+      <c r="DS23" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="DT23" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="DU23" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="DV23" t="inlineStr">
+        <is>
+          <t>Extremely</t>
+        </is>
+      </c>
+      <c r="DW23" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="DX23" t="inlineStr">
+        <is>
+          <t>Extremely</t>
+        </is>
+      </c>
+      <c r="DY23" t="inlineStr">
+        <is>
           <t>Quite a bit</t>
-        </is>
-      </c>
-      <c r="DL23" t="inlineStr">
-        <is>
-          <t>A little</t>
-        </is>
-      </c>
-      <c r="DM23" t="inlineStr">
-        <is>
-          <t>Extremely</t>
-        </is>
-      </c>
-      <c r="DN23" t="inlineStr">
-        <is>
-          <t>Quite a bit</t>
-        </is>
-      </c>
-      <c r="DO23" t="inlineStr">
-        <is>
-          <t>A little</t>
-        </is>
-      </c>
-      <c r="DP23" t="inlineStr">
-        <is>
-          <t>Very slightly or not at all</t>
-        </is>
-      </c>
-      <c r="DQ23" t="inlineStr">
-        <is>
-          <t>Quite a bit</t>
-        </is>
-      </c>
-      <c r="DR23" t="inlineStr">
-        <is>
-          <t>Moderately</t>
-        </is>
-      </c>
-      <c r="DS23" t="inlineStr">
-        <is>
-          <t>A little</t>
-        </is>
-      </c>
-      <c r="DT23" t="inlineStr">
-        <is>
-          <t>Moderately</t>
-        </is>
-      </c>
-      <c r="DU23" t="inlineStr">
-        <is>
-          <t>Quite a bit</t>
-        </is>
-      </c>
-      <c r="DV23" t="inlineStr">
-        <is>
-          <t>Quite a bit</t>
-        </is>
-      </c>
-      <c r="DW23" t="inlineStr">
-        <is>
-          <t>A little</t>
-        </is>
-      </c>
-      <c r="DX23" t="inlineStr">
-        <is>
-          <t>Quite a bit</t>
-        </is>
-      </c>
-      <c r="DY23" t="inlineStr">
-        <is>
-          <t>Moderately</t>
         </is>
       </c>
       <c r="DZ23" t="inlineStr">
@@ -20596,16 +20592,16 @@
       <c r="FJ23" t="inlineStr"/>
       <c r="FK23" t="inlineStr">
         <is>
-          <t>F_31d5oTsvhsB6pVp</t>
+          <t>F_8erkv6sHcW6LYXL</t>
         </is>
       </c>
       <c r="FL23" t="inlineStr">
         <is>
-          <t>1759250505146.webm</t>
+          <t>1759406472444.webm</t>
         </is>
       </c>
       <c r="FM23" t="n">
-        <v>2031327</v>
+        <v>2639264</v>
       </c>
       <c r="FN23" t="inlineStr">
         <is>
@@ -20614,33 +20610,33 @@
       </c>
       <c r="FO23" t="inlineStr">
         <is>
-          <t>Yeah, I'm, I will probably. I'm but I will crush Arro again. It's because. I just feel like was not and I can talk about something that can really know more things about me, of this for what I could do. OK good. So, yeah, well, maybe now with the shot again.</t>
+          <t>I would dine with virtual charter again. Because I, I'm very excited to. Um Improve my English with um um [PII]. It's a great experience. Who he finish.</t>
         </is>
       </c>
       <c r="FP23" t="inlineStr">
         <is>
-          <t>17592509-745e-488c-a4d8-0cbe2398aa21</t>
+          <t>17594072-35c9-48be-ae26-92b247705425</t>
         </is>
       </c>
       <c r="FQ23" t="inlineStr">
         <is>
-          <t>Neutral,Positive</t>
+          <t>Neutral,Very Positive</t>
         </is>
       </c>
       <c r="FR23" t="inlineStr"/>
       <c r="FS23" t="inlineStr"/>
       <c r="FT23" t="inlineStr">
         <is>
-          <t>F_2Y9qPkyrMlK7ofF</t>
+          <t>F_vUe7g3F8V9HahEt</t>
         </is>
       </c>
       <c r="FU23" t="inlineStr">
         <is>
-          <t>1759250583267.webm</t>
+          <t>1759406612942.webm</t>
         </is>
       </c>
       <c r="FV23" t="n">
-        <v>1999470</v>
+        <v>3018851</v>
       </c>
       <c r="FW23" t="inlineStr">
         <is>
@@ -20649,33 +20645,33 @@
       </c>
       <c r="FX23" t="inlineStr">
         <is>
-          <t>People say maybe when you're feeling bored and you want to talk about something. Or maybe even when you're sad or things like that. Mostly, I would say like when you're bored. Because when you don't know what to do, you want to maybe talk to someone today and you have no one to talk to. Maybe somebody's on vacation, somebody's doing anything else, you go talk to a doctor. You could listen to you.</t>
+          <t>I think dining uh with a virtual companion would be useful when, um, uh, um, a person is very, very, uh, afraid or, or sad. I think, um, The conversation with uh Audrey can uh very Useful and can Um Can be a, a beautiful experience.</t>
         </is>
       </c>
       <c r="FY23" t="inlineStr">
         <is>
-          <t>17592509-7691-4b20-9c5e-056422d6238c</t>
+          <t>17594072-3921-4b67-aa40-47473c0e7112</t>
         </is>
       </c>
       <c r="FZ23" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Neutral,Positive,Very Positive</t>
         </is>
       </c>
       <c r="GA23" t="inlineStr"/>
       <c r="GB23" t="inlineStr"/>
       <c r="GC23" t="inlineStr">
         <is>
-          <t>F_T7PoKAOqzw5UVCF</t>
+          <t>F_TuXzl2vaP6X814B</t>
         </is>
       </c>
       <c r="GD23" t="inlineStr">
         <is>
-          <t>1759250645599.webm</t>
+          <t>1759406780616.webm</t>
         </is>
       </c>
       <c r="GE23" t="n">
-        <v>2036101</v>
+        <v>2841423</v>
       </c>
       <c r="GF23" t="inlineStr">
         <is>
@@ -20684,33 +20680,33 @@
       </c>
       <c r="GG23" t="inlineStr">
         <is>
-          <t>I would say like. But so many things, I mean, like someone I want to talk maybe to movies, so I don't I want to talk maybe of games, anything else, even of history or even internet, even on YouTube or maybe draws animations, I would say that there are some things that. Show me a good idea. I would say of course it is. Would be good.</t>
+          <t>An idle virtual dining companion should have the capability of speaking in English. Um In every language and to speak very slowly. Because there are people that mm. Don't speak English very well.</t>
         </is>
       </c>
       <c r="GH23" t="inlineStr">
         <is>
-          <t>17592509-7925-458a-8512-2bc67795ad68</t>
+          <t>17594072-391a-456b-84e0-0ad08c5d3e8a</t>
         </is>
       </c>
       <c r="GI23" t="inlineStr">
         <is>
-          <t>Neutral,Positive</t>
+          <t>Neutral,Negative,Very Negative,Very Positive</t>
         </is>
       </c>
       <c r="GJ23" t="inlineStr"/>
       <c r="GK23" t="inlineStr"/>
       <c r="GL23" t="inlineStr">
         <is>
-          <t>F_2pWhEHzF4bbuWg3</t>
+          <t>F_2U4bPjeHHO6Dno5</t>
         </is>
       </c>
       <c r="GM23" t="inlineStr">
         <is>
-          <t>1759250736391.webm</t>
+          <t>1759406932757.webm</t>
         </is>
       </c>
       <c r="GN23" t="n">
-        <v>2198536</v>
+        <v>2724710</v>
       </c>
       <c r="GO23" t="inlineStr">
         <is>
@@ -20719,33 +20715,33 @@
       </c>
       <c r="GP23" t="inlineStr">
         <is>
-          <t>Like, I can say. Like maybe talk. I mean, some topics like maybe movies, like the movie Dragon Trainer, doing Jurassic Park, Godzilla, something like that. Games like Jurassic World Game or even Jurassic World, so I'm really like to try the dinosaur games. But show me this like topics to talk about.</t>
+          <t>It talked about the interest uh of uh the person who Uh, interact with He And uh Um, movies, um, museum. Um, uh, story. about um And hope beat.</t>
         </is>
       </c>
       <c r="GQ23" t="inlineStr">
         <is>
-          <t>17592509-82dc-4ed1-ab62-67fa132b8541</t>
+          <t>17594072-34d3-4eff-bb51-caa1e43ab94f</t>
         </is>
       </c>
       <c r="GR23" t="inlineStr">
         <is>
-          <t>Neutral,Positive</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="GS23" t="inlineStr"/>
       <c r="GT23" t="inlineStr"/>
       <c r="GU23" t="inlineStr">
         <is>
-          <t>F_9GG7gYzOjIcHIKl</t>
+          <t>F_1DPgwEOLU45ACu2</t>
         </is>
       </c>
       <c r="GV23" t="inlineStr">
         <is>
-          <t>1759250779931.webm</t>
+          <t>1759407027597.webm</t>
         </is>
       </c>
       <c r="GW23" t="n">
-        <v>2076864</v>
+        <v>5099509</v>
       </c>
       <c r="GX23" t="inlineStr">
         <is>
@@ -20754,33 +20750,33 @@
       </c>
       <c r="GY23" t="inlineStr">
         <is>
-          <t>Johnson disadvantages are like, maybe the refrigerator or like. Sometimes forget what you're talking about. I mean, like, you're talking so much, but then she like doesn't know what you're talking about, what I was talking about earlier. It would be such a disadvantageous for someone. So I think that this should be a little bit fixed for companies for such companies.</t>
+          <t>Potential disadvantage of such companions are, I, for my experience in the, the language because it's very Difficult to um Uh, understand. The English, um, not for people, for Italian people, because, uh, other nations, uh, are Uh, very useful to, uh, Speak and understand because they are um. Um, there are, uh, movies on, uh, Original language. We, we in Italian translate. Uh, films, and that, and that is not good.</t>
         </is>
       </c>
       <c r="GZ23" t="inlineStr">
         <is>
-          <t>17592509-858e-414e-9add-bcfc290b32b4</t>
+          <t>17594072-3830-4efc-b14c-76c5bfeb0579</t>
         </is>
       </c>
       <c r="HA23" t="inlineStr">
         <is>
-          <t>Neutral,Negative</t>
+          <t>Neutral,Negative,Very Positive,Positive</t>
         </is>
       </c>
       <c r="HB23" t="inlineStr"/>
       <c r="HC23" t="inlineStr"/>
       <c r="HD23" t="inlineStr">
         <is>
-          <t>F_2q7OyqTrkJDHkeg</t>
+          <t>F_3hg9FrdR2OpVpKn</t>
         </is>
       </c>
       <c r="HE23" t="inlineStr">
         <is>
-          <t>1759250836872.webm</t>
+          <t>1759407109278.webm</t>
         </is>
       </c>
       <c r="HF23" t="n">
-        <v>2462861</v>
+        <v>3554853</v>
       </c>
       <c r="HG23" t="inlineStr">
         <is>
@@ -20789,33 +20785,33 @@
       </c>
       <c r="HH23" t="inlineStr">
         <is>
-          <t>I would say more dress like sometimes um I talk about something, even talking or even like start talking about something that she didn't ask her. Or even start doing other things. And then for risks, dangers, I don't see anything. Well, I mean, for now, I don't see anything more dangerous. So, I see there are some little risk in front of dangers.</t>
+          <t>The the unique danger um using them, I think um it is um for, Young people that are. um. um. Sì. Mhm non lo so che non escono gli H- com'è in Giappone ci si chiamano Hakimi Mori là com'è che rimangono chiusi nelle loro stanze e quindi potrebbe essere un un danno. um Il non uscire.</t>
         </is>
       </c>
       <c r="HI23" t="inlineStr">
         <is>
-          <t>17592509-8721-4ec9-ac0c-eb29cb23d39f</t>
+          <t>17594072-3558-4f42-8b88-ba6debac14fe</t>
         </is>
       </c>
       <c r="HJ23" t="inlineStr">
         <is>
-          <t>Neutral,Negative,Positive</t>
+          <t>Neutral,Negative</t>
         </is>
       </c>
       <c r="HK23" t="inlineStr"/>
       <c r="HL23" t="inlineStr"/>
       <c r="HM23" t="inlineStr">
         <is>
-          <t>F_1ONxLulT4kEQwXq</t>
+          <t>F_1n2f2ugjQxRY0IH</t>
         </is>
       </c>
       <c r="HN23" t="inlineStr">
         <is>
-          <t>1759250888332.webm</t>
+          <t>1759407189208.webm</t>
         </is>
       </c>
       <c r="HO23" t="n">
-        <v>2145265</v>
+        <v>3055200</v>
       </c>
       <c r="HP23" t="inlineStr">
         <is>
@@ -20824,17 +20820,17 @@
       </c>
       <c r="HQ23" t="inlineStr">
         <is>
-          <t>Because if we're talking like about may have things to say, if we talk about some national borders, it's another trip. Because when you start to talk about your character saying this, then you go on, go on, go on. And you prefer to talk to this retractor and sometimes you will maybe not talk so much to your friends. Or even other's people with your mom and dad same.</t>
+          <t>Now, I see that um Progress in uh In, uh, in information technology, and, uh, in, uh, science. are very, very fast and uh I think the progress is uh a beautiful uh Occasion for the, for best. Word.</t>
         </is>
       </c>
       <c r="HR23" t="inlineStr">
         <is>
-          <t>17592509-8917-4636-857a-d2bb62db4fe8</t>
+          <t>17594072-3711-4e10-95e5-9bb5d8eb8aa4</t>
         </is>
       </c>
       <c r="HS23" t="inlineStr">
         <is>
-          <t>Neutral,Negative</t>
+          <t>Neutral,Very Positive</t>
         </is>
       </c>
       <c r="HT23" t="inlineStr"/>
@@ -20847,10 +20843,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45930.71747685185</v>
+        <v>45930.61171296296</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45930.7274537037</v>
+        <v>45930.62027777778</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -20859,14 +20855,14 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>37.161.173.93</t>
+          <t>151.100.200.190</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>100</v>
       </c>
       <c r="F24" t="n">
-        <v>861</v>
+        <v>739</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -20874,11 +20870,11 @@
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45930.72746621528</v>
+        <v>45930.62028479166</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>R_8Qm29f2aTI3GCeZ</t>
+          <t>R_2tMa1rHHBrWNnYu</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -20886,10 +20882,10 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
-        <v>43.1479</v>
+        <v>41.8905</v>
       </c>
       <c r="O24" t="n">
-        <v>12.1097</v>
+        <v>12.5127</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -20913,7 +20909,7 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mercy Maribel Ferlazzo </t>
+          <t>Lorenzo Vitanostra</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -20933,42 +20929,42 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>Mercy Maribel Ferlazzo</t>
+          <t>Lorenzo Vitanostra</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>225</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>40+</t>
+          <t>25-29</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Hispanic or Latino or Spanish Origin</t>
+          <t>White</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Italy </t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ecuador </t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
@@ -20989,149 +20985,149 @@
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
+          <t>Disagree</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AN24" t="inlineStr">
+        <is>
           <t>Neither Agree nor Disagree</t>
         </is>
       </c>
-      <c r="AK24" t="inlineStr">
+      <c r="AO24" t="inlineStr">
         <is>
           <t>Somewhat Agree</t>
         </is>
       </c>
-      <c r="AL24" t="inlineStr">
+      <c r="AP24" t="inlineStr">
         <is>
           <t>Agree</t>
         </is>
       </c>
-      <c r="AM24" t="inlineStr">
+      <c r="AQ24" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr">
         <is>
           <t>Strongly Agree</t>
         </is>
       </c>
-      <c r="AN24" t="inlineStr">
+      <c r="AU24" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="AV24" t="inlineStr">
+        <is>
+          <t>Disagree</t>
+        </is>
+      </c>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Disagree</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
         <is>
           <t>Somewhat Agree</t>
         </is>
       </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>Neither Agree nor Disagree</t>
-        </is>
-      </c>
-      <c r="AP24" t="inlineStr">
-        <is>
-          <t>Neither Agree nor Disagree</t>
-        </is>
-      </c>
-      <c r="AQ24" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="AR24" t="inlineStr">
-        <is>
-          <t>Neither Agree nor Disagree</t>
-        </is>
-      </c>
-      <c r="AS24" t="inlineStr">
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="AZ24" t="inlineStr">
+        <is>
+          <t>Totally Agree</t>
+        </is>
+      </c>
+      <c r="BA24" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="BB24" t="inlineStr">
+        <is>
+          <t>Totally Disagree</t>
+        </is>
+      </c>
+      <c r="BC24" t="inlineStr">
+        <is>
+          <t>Neither Agree not Disagree</t>
+        </is>
+      </c>
+      <c r="BD24" t="inlineStr">
+        <is>
+          <t>Totally Disagree</t>
+        </is>
+      </c>
+      <c r="BE24" t="inlineStr">
         <is>
           <t>Somewhat Agree</t>
         </is>
       </c>
-      <c r="AT24" t="inlineStr">
-        <is>
-          <t>Neither Agree nor Disagree</t>
-        </is>
-      </c>
-      <c r="AU24" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="AV24" t="inlineStr">
-        <is>
-          <t>Disagree</t>
-        </is>
-      </c>
-      <c r="AW24" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="AX24" t="inlineStr">
-        <is>
-          <t>Somewhat Disagree</t>
-        </is>
-      </c>
-      <c r="AY24" t="inlineStr">
+      <c r="BF24" t="inlineStr">
         <is>
           <t>Totally Disagree</t>
         </is>
       </c>
-      <c r="AZ24" t="inlineStr">
+      <c r="BG24" t="inlineStr">
         <is>
           <t>Totally Agree</t>
         </is>
       </c>
-      <c r="BA24" t="inlineStr">
-        <is>
-          <t>Totally Disagree</t>
-        </is>
-      </c>
-      <c r="BB24" t="inlineStr">
-        <is>
-          <t>Totally Disagree</t>
-        </is>
-      </c>
-      <c r="BC24" t="inlineStr">
+      <c r="BH24" t="inlineStr">
+        <is>
+          <t>Often</t>
+        </is>
+      </c>
+      <c r="BI24" t="inlineStr">
+        <is>
+          <t>Often</t>
+        </is>
+      </c>
+      <c r="BJ24" t="inlineStr">
+        <is>
+          <t>Rarely</t>
+        </is>
+      </c>
+      <c r="BK24" t="inlineStr">
+        <is>
+          <t>Nearly Never</t>
+        </is>
+      </c>
+      <c r="BL24" t="inlineStr">
         <is>
           <t>Totally Agree</t>
         </is>
       </c>
-      <c r="BD24" t="inlineStr">
-        <is>
-          <t>Totally Disagree</t>
-        </is>
-      </c>
-      <c r="BE24" t="inlineStr">
-        <is>
-          <t>Totally Agree</t>
-        </is>
-      </c>
-      <c r="BF24" t="inlineStr">
-        <is>
-          <t>Totally Disagree</t>
-        </is>
-      </c>
-      <c r="BG24" t="inlineStr">
-        <is>
-          <t>Totally Agree</t>
-        </is>
-      </c>
-      <c r="BH24" t="inlineStr">
-        <is>
-          <t>Nearly Never</t>
-        </is>
-      </c>
-      <c r="BI24" t="inlineStr">
-        <is>
-          <t>Nearly Always</t>
-        </is>
-      </c>
-      <c r="BJ24" t="inlineStr">
-        <is>
-          <t>Sometimes</t>
-        </is>
-      </c>
-      <c r="BK24" t="inlineStr">
-        <is>
-          <t>Nearly Never</t>
-        </is>
-      </c>
-      <c r="BL24" t="inlineStr">
-        <is>
-          <t>Somewhat Disagree</t>
-        </is>
-      </c>
       <c r="BM24" t="inlineStr">
         <is>
           <t>Somewhat Agree</t>
@@ -21144,34 +21140,34 @@
       </c>
       <c r="BO24" t="inlineStr">
         <is>
-          <t>Neither Agree nor Disagree</t>
+          <t>Somewhat Agree</t>
         </is>
       </c>
       <c r="BP24" t="inlineStr">
         <is>
+          <t>Never</t>
+        </is>
+      </c>
+      <c r="BQ24" t="inlineStr">
+        <is>
+          <t>2 to 3 times a week</t>
+        </is>
+      </c>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>2 to 3 times a week</t>
+        </is>
+      </c>
+      <c r="BS24" t="inlineStr">
+        <is>
           <t>Multiple times a day</t>
         </is>
       </c>
-      <c r="BQ24" t="inlineStr">
-        <is>
-          <t>1 time a week</t>
-        </is>
-      </c>
-      <c r="BR24" t="inlineStr">
+      <c r="BT24" t="inlineStr">
         <is>
           <t>Never</t>
         </is>
       </c>
-      <c r="BS24" t="inlineStr">
-        <is>
-          <t>Multiple times a day</t>
-        </is>
-      </c>
-      <c r="BT24" t="inlineStr">
-        <is>
-          <t>Once a day</t>
-        </is>
-      </c>
       <c r="BU24" t="inlineStr">
         <is>
           <t>Quite a bit</t>
@@ -21179,7 +21175,7 @@
       </c>
       <c r="BV24" t="inlineStr">
         <is>
-          <t>Moderately</t>
+          <t>Very slightly or not at all</t>
         </is>
       </c>
       <c r="BW24" t="inlineStr">
@@ -21189,109 +21185,109 @@
       </c>
       <c r="BX24" t="inlineStr">
         <is>
-          <t>A little</t>
+          <t>Very slightly or not at all</t>
         </is>
       </c>
       <c r="BY24" t="inlineStr">
         <is>
-          <t>A little</t>
+          <t>Quite a bit</t>
         </is>
       </c>
       <c r="BZ24" t="inlineStr">
         <is>
-          <t>Moderately</t>
+          <t>Very slightly or not at all</t>
         </is>
       </c>
       <c r="CA24" t="inlineStr">
         <is>
-          <t>Moderately</t>
+          <t>Very slightly or not at all</t>
         </is>
       </c>
       <c r="CB24" t="inlineStr">
         <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="CC24" t="inlineStr">
+        <is>
+          <t>Extremely</t>
+        </is>
+      </c>
+      <c r="CD24" t="inlineStr">
+        <is>
           <t>Quite a bit</t>
         </is>
       </c>
-      <c r="CC24" t="inlineStr">
+      <c r="CE24" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="CF24" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="CG24" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="CH24" t="inlineStr">
         <is>
           <t>Quite a bit</t>
         </is>
       </c>
-      <c r="CD24" t="inlineStr">
-        <is>
-          <t>A little</t>
-        </is>
-      </c>
-      <c r="CE24" t="inlineStr">
-        <is>
-          <t>A little</t>
-        </is>
-      </c>
-      <c r="CF24" t="inlineStr">
-        <is>
-          <t>Moderately</t>
-        </is>
-      </c>
-      <c r="CG24" t="inlineStr">
-        <is>
-          <t>A little</t>
-        </is>
-      </c>
-      <c r="CH24" t="inlineStr">
+      <c r="CI24" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CJ24" t="inlineStr">
         <is>
           <t>Quite a bit</t>
         </is>
       </c>
-      <c r="CI24" t="inlineStr">
-        <is>
-          <t>A little</t>
-        </is>
-      </c>
-      <c r="CJ24" t="inlineStr">
+      <c r="CK24" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CL24" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CM24" t="inlineStr">
         <is>
           <t>Quite a bit</t>
         </is>
       </c>
-      <c r="CK24" t="inlineStr">
-        <is>
-          <t>Extremely</t>
-        </is>
-      </c>
-      <c r="CL24" t="inlineStr">
-        <is>
-          <t>Very slightly or not at all</t>
-        </is>
-      </c>
-      <c r="CM24" t="inlineStr">
-        <is>
-          <t>Moderately</t>
-        </is>
-      </c>
       <c r="CN24" t="inlineStr">
         <is>
-          <t>A little</t>
+          <t>Very slightly or not at all</t>
         </is>
       </c>
       <c r="CO24" t="inlineStr">
         <is>
+          <t>Once in a while</t>
+        </is>
+      </c>
+      <c r="CP24" t="inlineStr">
+        <is>
           <t>Never</t>
         </is>
       </c>
-      <c r="CP24" t="inlineStr">
+      <c r="CQ24" t="inlineStr">
         <is>
           <t>Once in a while</t>
         </is>
       </c>
-      <c r="CQ24" t="inlineStr">
-        <is>
-          <t>Once in a while</t>
-        </is>
-      </c>
       <c r="CR24" s="2" t="n">
-        <v>45930.77805555556</v>
+        <v>45930.66528935185</v>
       </c>
       <c r="CS24" s="2" t="n">
-        <v>45930.7844212963</v>
+        <v>45930.67384259259</v>
       </c>
       <c r="CT24" t="inlineStr">
         <is>
@@ -21300,14 +21296,14 @@
       </c>
       <c r="CU24" t="inlineStr">
         <is>
-          <t>151.100.189.29</t>
+          <t>151.100.200.190</t>
         </is>
       </c>
       <c r="CV24" t="n">
         <v>100</v>
       </c>
       <c r="CW24" t="n">
-        <v>549</v>
+        <v>739</v>
       </c>
       <c r="CX24" t="inlineStr">
         <is>
@@ -21315,11 +21311,11 @@
         </is>
       </c>
       <c r="CY24" s="2" t="n">
-        <v>45930.78447313658</v>
+        <v>45930.67390460648</v>
       </c>
       <c r="CZ24" t="inlineStr">
         <is>
-          <t>R_8Svox2ll6JNagF2</t>
+          <t>R_2EQlwruSd4Gpw1Y</t>
         </is>
       </c>
       <c r="DA24" t="inlineStr"/>
@@ -21349,42 +21345,42 @@
       </c>
       <c r="DJ24" t="inlineStr">
         <is>
-          <t>Very slightly or not at all</t>
+          <t>Extremely</t>
         </is>
       </c>
       <c r="DK24" t="inlineStr">
         <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="DL24" t="inlineStr">
+        <is>
           <t>Quite a bit</t>
         </is>
       </c>
-      <c r="DL24" t="inlineStr">
-        <is>
-          <t>Very slightly or not at all</t>
-        </is>
-      </c>
       <c r="DM24" t="inlineStr">
         <is>
-          <t>A little</t>
+          <t>Quite a bit</t>
         </is>
       </c>
       <c r="DN24" t="inlineStr">
         <is>
-          <t>A little</t>
+          <t>Quite a bit</t>
         </is>
       </c>
       <c r="DO24" t="inlineStr">
         <is>
-          <t>Very slightly or not at all</t>
+          <t>A little</t>
         </is>
       </c>
       <c r="DP24" t="inlineStr">
         <is>
-          <t>Very slightly or not at all</t>
+          <t>Moderately</t>
         </is>
       </c>
       <c r="DQ24" t="inlineStr">
         <is>
-          <t>Moderately</t>
+          <t>Quite a bit</t>
         </is>
       </c>
       <c r="DR24" t="inlineStr">
@@ -21394,52 +21390,52 @@
       </c>
       <c r="DS24" t="inlineStr">
         <is>
-          <t>Very slightly or not at all</t>
+          <t>Quite a bit</t>
         </is>
       </c>
       <c r="DT24" t="inlineStr">
         <is>
-          <t>A little</t>
+          <t>Moderately</t>
         </is>
       </c>
       <c r="DU24" t="inlineStr">
         <is>
-          <t>A little</t>
+          <t>Very slightly or not at all</t>
         </is>
       </c>
       <c r="DV24" t="inlineStr">
         <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="DW24" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="DX24" t="inlineStr">
+        <is>
           <t>Quite a bit</t>
         </is>
       </c>
-      <c r="DW24" t="inlineStr">
-        <is>
-          <t>Very slightly or not at all</t>
-        </is>
-      </c>
-      <c r="DX24" t="inlineStr">
+      <c r="DY24" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="DZ24" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="EA24" t="inlineStr">
         <is>
           <t>Quite a bit</t>
         </is>
       </c>
-      <c r="DY24" t="inlineStr">
-        <is>
-          <t>Quite a bit</t>
-        </is>
-      </c>
-      <c r="DZ24" t="inlineStr">
-        <is>
-          <t>Very slightly or not at all</t>
-        </is>
-      </c>
-      <c r="EA24" t="inlineStr">
-        <is>
-          <t>Quite a bit</t>
-        </is>
-      </c>
       <c r="EB24" t="inlineStr">
         <is>
-          <t>A little</t>
+          <t>Very slightly or not at all</t>
         </is>
       </c>
       <c r="EC24" t="inlineStr"/>
@@ -21478,16 +21474,16 @@
       <c r="FJ24" t="inlineStr"/>
       <c r="FK24" t="inlineStr">
         <is>
-          <t>F_vN4pilexrocYz7P</t>
+          <t>F_1l0K2NXoDZwogE9</t>
         </is>
       </c>
       <c r="FL24" t="inlineStr">
         <is>
-          <t>1759250601088.webm</t>
+          <t>1759240867751.webm</t>
         </is>
       </c>
       <c r="FM24" t="n">
-        <v>3385729</v>
+        <v>3078414</v>
       </c>
       <c r="FN24" t="inlineStr">
         <is>
@@ -21496,33 +21492,33 @@
       </c>
       <c r="FO24" t="inlineStr">
         <is>
-          <t>Yeah, I will do again. Why not? I think that it's something new for me. Never trying something like that. Um, I think that that it can give you another chance to a beautiful character.</t>
+          <t>Barlo Barlolosaa. I'm OK. Did you know that? Yes, I would dine with a virtual character again. Uh, I think it does mean, uh. Kind of experience. It has been really. Nice and warm and the chatter has been going on quite flowing.</t>
         </is>
       </c>
       <c r="FP24" t="inlineStr">
         <is>
-          <t>17592509-8083-4c71-9521-f9014c83fb0b</t>
+          <t>17592414-263e-4a36-ad2d-0d864e296dda</t>
         </is>
       </c>
       <c r="FQ24" t="inlineStr">
         <is>
-          <t>Neutral,Very Positive</t>
+          <t>Neutral,Positive</t>
         </is>
       </c>
       <c r="FR24" t="inlineStr"/>
       <c r="FS24" t="inlineStr"/>
       <c r="FT24" t="inlineStr">
         <is>
-          <t>F_1E0gmwSC1sSZJVX</t>
+          <t>F_2aaxWbiB0HzsNW0</t>
         </is>
       </c>
       <c r="FU24" t="inlineStr">
         <is>
-          <t>1759250659009.webm</t>
+          <t>1759240952185.webm</t>
         </is>
       </c>
       <c r="FV24" t="n">
-        <v>3392404</v>
+        <v>3713834</v>
       </c>
       <c r="FW24" t="inlineStr">
         <is>
@@ -21531,12 +21527,12 @@
       </c>
       <c r="FX24" t="inlineStr">
         <is>
-          <t>I think it can be useful for people who spend some days in a hospital or in a place where they are alone. They don't have any chance to talk with somebody else. um, so I think that can be a Practice or in any case um be funny if you can talk with someone, OK? So don't be feeling alone.</t>
+          <t>I think it would be useful in. A context where there's uh someone alone, maybe. Uh, another man or a woman. Or Maybe for people who for some reason. Can't get. Out from their bed or sofa, so if someone has a broken leg. And for whatever reason he's home alone. Having the companion of a virtual character, I think it could be really useful.</t>
         </is>
       </c>
       <c r="FY24" t="inlineStr">
         <is>
-          <t>17592509-804d-4969-a49a-ec8b437ca33f</t>
+          <t>17592414-278a-49b4-bca5-41c78695e65e</t>
         </is>
       </c>
       <c r="FZ24" t="inlineStr">
@@ -21548,16 +21544,16 @@
       <c r="GB24" t="inlineStr"/>
       <c r="GC24" t="inlineStr">
         <is>
-          <t>F_1jVcYkhtF1MdS3a</t>
+          <t>F_2fcGJTdNTmCfpk7</t>
         </is>
       </c>
       <c r="GD24" t="inlineStr">
         <is>
-          <t>1759250728713.webm</t>
+          <t>1759241044062.webm</t>
         </is>
       </c>
       <c r="GE24" t="n">
-        <v>4333622</v>
+        <v>2952288</v>
       </c>
       <c r="GF24" t="inlineStr">
         <is>
@@ -21566,33 +21562,33 @@
       </c>
       <c r="GG24" t="inlineStr">
         <is>
-          <t>I think that they could, they could have some more um an active part. I mean, so you can ask something or even talk about, tell something about itself, even if I know that's, it's an artificial character, so it's something that doesn't exist, but it would be nice if it can have, can have a story behind. Uh, so, even if it's just a story, if it's not real, but uh, people it's interesting to know something about who he's talking to.</t>
+          <t>I think it should be as much as humanlike it can, so it has to be kind, um. It has to have, it has to show interest. Um, during the chat and uh. I don't know, it has to be warming. It, it doesn't have to feel mechanic, so. The more humanlike it can be, the better.</t>
         </is>
       </c>
       <c r="GH24" t="inlineStr">
         <is>
-          <t>17592509-81ef-4509-8753-277ed76875c5</t>
+          <t>17592414-28c0-492a-9065-389637ae0d9e</t>
         </is>
       </c>
       <c r="GI24" t="inlineStr">
         <is>
-          <t>Neutral,Negative,Positive</t>
+          <t>Neutral,Positive,Negative</t>
         </is>
       </c>
       <c r="GJ24" t="inlineStr"/>
       <c r="GK24" t="inlineStr"/>
       <c r="GL24" t="inlineStr">
         <is>
-          <t>F_2doJ30G0uYboL9r</t>
+          <t>F_datLXyTIOEOhst3</t>
         </is>
       </c>
       <c r="GM24" t="inlineStr">
         <is>
-          <t>1759250786991.webm</t>
+          <t>1759241182249.webm</t>
         </is>
       </c>
       <c r="GN24" t="n">
-        <v>4214732</v>
+        <v>3053586</v>
       </c>
       <c r="GO24" t="inlineStr">
         <is>
@@ -21601,33 +21597,33 @@
       </c>
       <c r="GP24" t="inlineStr">
         <is>
-          <t>It could be useful if she could have more topics, uh, such as friendship, uh, um, love. History, um, storytelling in general, not something concerning politics or war because I have very, um, not very, very nice talking about, I think if we go with stuff using, I, I think that it can be useful for people with, uh, time alone so it's not uh a good thing to talk about something that's worth.</t>
+          <t>I would say that it has to understand, comprehend, and Keep on chatting about. Um, the topics chosen by the one who's talking and uh. I guess that. It would be slightly better if there is um. Some kind of preference for uh light topics in the end of it all it's just a chat during lunchtime, so. I think that light topics are better.</t>
         </is>
       </c>
       <c r="GQ24" t="inlineStr">
         <is>
-          <t>17592509-80b9-4d32-a077-552539c728b7</t>
+          <t>17592414-2865-4549-8c26-428579a36d9b</t>
         </is>
       </c>
       <c r="GR24" t="inlineStr">
         <is>
-          <t>Neutral,Negative,Very Positive</t>
+          <t>Neutral,Negative</t>
         </is>
       </c>
       <c r="GS24" t="inlineStr"/>
       <c r="GT24" t="inlineStr"/>
       <c r="GU24" t="inlineStr">
         <is>
-          <t>F_3pg4mJFKNcbCGxo</t>
+          <t>F_1Qi3z2sMI1QZfit</t>
         </is>
       </c>
       <c r="GV24" t="inlineStr">
         <is>
-          <t>1759250836823.webm</t>
+          <t>1759241254142.webm</t>
         </is>
       </c>
       <c r="GW24" t="n">
-        <v>3274985</v>
+        <v>2756470</v>
       </c>
       <c r="GX24" t="inlineStr">
         <is>
@@ -21636,12 +21632,12 @@
       </c>
       <c r="GY24" t="inlineStr">
         <is>
-          <t>Well, I think that, mm, only thing is if you were, uh, have just a relationship, a relationship, not a common in a common sense, but if you interact just with her, if you so, if you interact with the other people, I think that it can be not a good thing, not a good use of her and I.</t>
+          <t>I can't see proper disadvantages, I guess that. Maybe going on um. After a massive usage of, um, these virtual characters, there can be, mm. A preference, maybe for virtual characters instead of. Humans, human companion. I don't know.</t>
         </is>
       </c>
       <c r="GZ24" t="inlineStr">
         <is>
-          <t>17592509-8053-4906-b86e-96d127ee9b65</t>
+          <t>17592414-26de-4e3f-956d-adf2802bb3b8</t>
         </is>
       </c>
       <c r="HA24" t="inlineStr">
@@ -21653,16 +21649,16 @@
       <c r="HC24" t="inlineStr"/>
       <c r="HD24" t="inlineStr">
         <is>
-          <t>F_1i4N2Dx6UXFdGih</t>
+          <t>F_31GeVnR9YuYqHyj</t>
         </is>
       </c>
       <c r="HE24" t="inlineStr">
         <is>
-          <t>1759250883396.webm</t>
+          <t>1759241316238.webm</t>
         </is>
       </c>
       <c r="HF24" t="n">
-        <v>3276715</v>
+        <v>3027857</v>
       </c>
       <c r="HG24" t="inlineStr">
         <is>
@@ -21671,12 +21667,12 @@
       </c>
       <c r="HH24" t="inlineStr">
         <is>
-          <t>Uh, can be dangerous if you use it just for the main purpose that is the, uh, to be not, to not feel alone, to have someone to talk to. But, uh, as I said, first, if you have just her as a person to talk to, it can be, um, an isolation as well. So if I'm worse now with a new person.</t>
+          <t>Not in the near future, I think that maybe, um. As I was talking in the previous question, there uh may be the risk of a preference. In the company of virtual characters instead of humans, but it's something quite dystopical and also. Really, really far in the future, so I don't think that there are many issues or dangers in using virtual characters.</t>
         </is>
       </c>
       <c r="HI24" t="inlineStr">
         <is>
-          <t>17592509-80f8-4ef9-bb9d-f708d49cf964</t>
+          <t>17592414-2698-4ba5-ab6c-de3ebc6a53f7</t>
         </is>
       </c>
       <c r="HJ24" t="inlineStr">
@@ -21688,16 +21684,16 @@
       <c r="HL24" t="inlineStr"/>
       <c r="HM24" t="inlineStr">
         <is>
-          <t>F_1LnxLivS5OXMg8y</t>
+          <t>F_YXlE63wkE3BeBPz</t>
         </is>
       </c>
       <c r="HN24" t="inlineStr">
         <is>
-          <t>1759250945631.webm</t>
+          <t>1759241384404.webm</t>
         </is>
       </c>
       <c r="HO24" t="n">
-        <v>3451705</v>
+        <v>3489530</v>
       </c>
       <c r="HP24" t="inlineStr">
         <is>
@@ -21706,22 +21702,3554 @@
       </c>
       <c r="HQ24" t="inlineStr">
         <is>
-          <t>I think, after trying to talk with an I, I think that if you have the possibility to talk with a human person is always the best option. But, um, I know that sometimes it's not possible, so it's a, a good alternative. And um, So, not, not so, not so bad things if you don't have any other possibility to talk with someone. But just use it well.</t>
+          <t>I don't think that there have been major differences, um, it was uh. Way better than I expected, to be honest. It was like chatting. Almost with, um, I wouldn't say a friend, but with someone, it's like the those kind of small talks that anyone has been going through, so. I think that, um, it felt, uh, I felt the difference when I switched over with talking with a friend of mine, but, uh, I thought that it would have been uh way bigger of a difference.</t>
         </is>
       </c>
       <c r="HR24" t="inlineStr">
         <is>
-          <t>17592509-80ed-4102-9eee-593a880f6e9b</t>
+          <t>17592414-288f-43cf-a79d-15868bd70090</t>
         </is>
       </c>
       <c r="HS24" t="inlineStr">
         <is>
-          <t>Neutral,Positive,Very Positive,Negative</t>
+          <t>Neutral,Positive</t>
         </is>
       </c>
       <c r="HT24" t="inlineStr"/>
       <c r="HU24" t="inlineStr"/>
       <c r="HV24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45930.7543287037</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45930.76085648148</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Indirizzo IP</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>78.213.9.45</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>100</v>
+      </c>
+      <c r="F25" t="n">
+        <v>563</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Vero</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>45930.76086675926</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>R_8m2Usrw7OLbV6rq</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
+        <v>43.1479</v>
+      </c>
+      <c r="O25" t="n">
+        <v>12.1097</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>DECLARE that I have read the Information on the processing of personal data in section A,GIVE CONSENT for Sapienza University of Rome to process my personal data for the purposes and in the manner described therein,AUTHORIZE the Sapienza University of Rome to use my images and/or voice for the creation of videos and multimedia materials, made and used exclusively for scientific research purposes.</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Valerio Bernabei</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>I have received comprehensive explanations regarding the study titled "Changing the Scenery: Eating in Different Environments".,I have reviewed the information note regarding the study in Section A, and have been given the email addresses to contact to receive a copy.,I have been given the email addresses that give me the opportunity to ask questions regarding the study.</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>of the risks and benefits that may arise from participating in this study.,that my participation is voluntary, and that I am free to withdraw at any time without having to provide explanations and without my medical care or rights being affected.</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valerio Bernabei </t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>18-24</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>Italt</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>Non-Social</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>Disagree</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AR25" t="inlineStr">
+        <is>
+          <t>Disagree</t>
+        </is>
+      </c>
+      <c r="AS25" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AU25" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="AV25" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="AZ25" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="BA25" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="BB25" t="inlineStr">
+        <is>
+          <t>Totally Disagree</t>
+        </is>
+      </c>
+      <c r="BC25" t="inlineStr">
+        <is>
+          <t>Neither Agree not Disagree</t>
+        </is>
+      </c>
+      <c r="BD25" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="BE25" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="BF25" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="BG25" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="BH25" t="inlineStr">
+        <is>
+          <t>Rarely</t>
+        </is>
+      </c>
+      <c r="BI25" t="inlineStr">
+        <is>
+          <t>Often</t>
+        </is>
+      </c>
+      <c r="BJ25" t="inlineStr">
+        <is>
+          <t>Sometimes</t>
+        </is>
+      </c>
+      <c r="BK25" t="inlineStr">
+        <is>
+          <t>Sometimes</t>
+        </is>
+      </c>
+      <c r="BL25" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="BM25" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="BN25" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="BO25" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="BP25" t="inlineStr">
+        <is>
+          <t>Multiple times a day</t>
+        </is>
+      </c>
+      <c r="BQ25" t="inlineStr">
+        <is>
+          <t>Never</t>
+        </is>
+      </c>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>Never</t>
+        </is>
+      </c>
+      <c r="BS25" t="inlineStr">
+        <is>
+          <t>Multiple times a day</t>
+        </is>
+      </c>
+      <c r="BT25" t="inlineStr">
+        <is>
+          <t>Multiple times a day</t>
+        </is>
+      </c>
+      <c r="BU25" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="BV25" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="BW25" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="BX25" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="BY25" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="BZ25" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CA25" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CB25" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="CC25" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CD25" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CE25" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="CF25" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CG25" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CH25" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CI25" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="CJ25" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CK25" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CL25" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="CM25" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="CN25" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="CO25" t="inlineStr">
+        <is>
+          <t>Once in a while</t>
+        </is>
+      </c>
+      <c r="CP25" t="inlineStr">
+        <is>
+          <t>Once in a while</t>
+        </is>
+      </c>
+      <c r="CQ25" t="inlineStr">
+        <is>
+          <t>Once in a while</t>
+        </is>
+      </c>
+      <c r="CR25" s="2" t="n">
+        <v>45930.77659722222</v>
+      </c>
+      <c r="CS25" s="2" t="n">
+        <v>45930.784375</v>
+      </c>
+      <c r="CT25" t="inlineStr">
+        <is>
+          <t>Indirizzo IP</t>
+        </is>
+      </c>
+      <c r="CU25" t="inlineStr">
+        <is>
+          <t>151.100.200.190</t>
+        </is>
+      </c>
+      <c r="CV25" t="n">
+        <v>100</v>
+      </c>
+      <c r="CW25" t="n">
+        <v>671</v>
+      </c>
+      <c r="CX25" t="inlineStr">
+        <is>
+          <t>Vero</t>
+        </is>
+      </c>
+      <c r="CY25" s="2" t="n">
+        <v>45930.78458179398</v>
+      </c>
+      <c r="CZ25" t="inlineStr">
+        <is>
+          <t>R_8LURKpnw09xBW3V</t>
+        </is>
+      </c>
+      <c r="DA25" t="inlineStr"/>
+      <c r="DB25" t="inlineStr"/>
+      <c r="DC25" t="inlineStr"/>
+      <c r="DD25" t="inlineStr"/>
+      <c r="DE25" t="n">
+        <v>41.8905</v>
+      </c>
+      <c r="DF25" t="n">
+        <v>12.5127</v>
+      </c>
+      <c r="DG25" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="DH25" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="DI25" t="inlineStr">
+        <is>
+          <t>Extremely</t>
+        </is>
+      </c>
+      <c r="DJ25" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="DK25" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="DL25" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="DM25" t="inlineStr">
+        <is>
+          <t>Extremely</t>
+        </is>
+      </c>
+      <c r="DN25" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="DO25" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="DP25" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="DQ25" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="DR25" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="DS25" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="DT25" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="DU25" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="DV25" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="DW25" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="DX25" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="DY25" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="DZ25" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="EA25" t="inlineStr">
+        <is>
+          <t>Extremely</t>
+        </is>
+      </c>
+      <c r="EB25" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="EC25" t="inlineStr"/>
+      <c r="ED25" t="inlineStr"/>
+      <c r="EE25" t="inlineStr"/>
+      <c r="EF25" t="inlineStr"/>
+      <c r="EG25" t="inlineStr"/>
+      <c r="EH25" t="inlineStr"/>
+      <c r="EI25" t="inlineStr"/>
+      <c r="EJ25" t="inlineStr"/>
+      <c r="EK25" t="inlineStr"/>
+      <c r="EL25" t="inlineStr"/>
+      <c r="EM25" t="inlineStr"/>
+      <c r="EN25" t="inlineStr"/>
+      <c r="EO25" t="inlineStr"/>
+      <c r="EP25" t="inlineStr"/>
+      <c r="EQ25" t="inlineStr"/>
+      <c r="ER25" t="inlineStr"/>
+      <c r="ES25" t="inlineStr"/>
+      <c r="ET25" t="inlineStr"/>
+      <c r="EU25" t="inlineStr"/>
+      <c r="EV25" t="inlineStr"/>
+      <c r="EW25" t="inlineStr"/>
+      <c r="EX25" t="inlineStr"/>
+      <c r="EY25" t="inlineStr"/>
+      <c r="EZ25" t="inlineStr"/>
+      <c r="FA25" t="inlineStr"/>
+      <c r="FB25" t="inlineStr"/>
+      <c r="FC25" t="inlineStr"/>
+      <c r="FD25" t="inlineStr"/>
+      <c r="FE25" t="inlineStr"/>
+      <c r="FF25" t="inlineStr"/>
+      <c r="FG25" t="inlineStr"/>
+      <c r="FH25" t="inlineStr"/>
+      <c r="FI25" t="inlineStr"/>
+      <c r="FJ25" t="inlineStr"/>
+      <c r="FK25" t="inlineStr">
+        <is>
+          <t>F_31d5oTsvhsB6pVp</t>
+        </is>
+      </c>
+      <c r="FL25" t="inlineStr">
+        <is>
+          <t>1759250505146.webm</t>
+        </is>
+      </c>
+      <c r="FM25" t="n">
+        <v>2031327</v>
+      </c>
+      <c r="FN25" t="inlineStr">
+        <is>
+          <t>video/webm</t>
+        </is>
+      </c>
+      <c r="FO25" t="inlineStr">
+        <is>
+          <t>Yeah, I'm, I will probably. I'm but I will crush Arro again. It's because. I just feel like was not and I can talk about something that can really know more things about me, of this for what I could do. OK good. So, yeah, well, maybe now with the shot again.</t>
+        </is>
+      </c>
+      <c r="FP25" t="inlineStr">
+        <is>
+          <t>17592509-745e-488c-a4d8-0cbe2398aa21</t>
+        </is>
+      </c>
+      <c r="FQ25" t="inlineStr">
+        <is>
+          <t>Neutral,Positive</t>
+        </is>
+      </c>
+      <c r="FR25" t="inlineStr"/>
+      <c r="FS25" t="inlineStr"/>
+      <c r="FT25" t="inlineStr">
+        <is>
+          <t>F_2Y9qPkyrMlK7ofF</t>
+        </is>
+      </c>
+      <c r="FU25" t="inlineStr">
+        <is>
+          <t>1759250583267.webm</t>
+        </is>
+      </c>
+      <c r="FV25" t="n">
+        <v>1999470</v>
+      </c>
+      <c r="FW25" t="inlineStr">
+        <is>
+          <t>video/webm</t>
+        </is>
+      </c>
+      <c r="FX25" t="inlineStr">
+        <is>
+          <t>People say maybe when you're feeling bored and you want to talk about something. Or maybe even when you're sad or things like that. Mostly, I would say like when you're bored. Because when you don't know what to do, you want to maybe talk to someone today and you have no one to talk to. Maybe somebody's on vacation, somebody's doing anything else, you go talk to a doctor. You could listen to you.</t>
+        </is>
+      </c>
+      <c r="FY25" t="inlineStr">
+        <is>
+          <t>17592509-7691-4b20-9c5e-056422d6238c</t>
+        </is>
+      </c>
+      <c r="FZ25" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="GA25" t="inlineStr"/>
+      <c r="GB25" t="inlineStr"/>
+      <c r="GC25" t="inlineStr">
+        <is>
+          <t>F_T7PoKAOqzw5UVCF</t>
+        </is>
+      </c>
+      <c r="GD25" t="inlineStr">
+        <is>
+          <t>1759250645599.webm</t>
+        </is>
+      </c>
+      <c r="GE25" t="n">
+        <v>2036101</v>
+      </c>
+      <c r="GF25" t="inlineStr">
+        <is>
+          <t>video/webm</t>
+        </is>
+      </c>
+      <c r="GG25" t="inlineStr">
+        <is>
+          <t>I would say like. But so many things, I mean, like someone I want to talk maybe to movies, so I don't I want to talk maybe of games, anything else, even of history or even internet, even on YouTube or maybe draws animations, I would say that there are some things that. Show me a good idea. I would say of course it is. Would be good.</t>
+        </is>
+      </c>
+      <c r="GH25" t="inlineStr">
+        <is>
+          <t>17592509-7925-458a-8512-2bc67795ad68</t>
+        </is>
+      </c>
+      <c r="GI25" t="inlineStr">
+        <is>
+          <t>Neutral,Positive</t>
+        </is>
+      </c>
+      <c r="GJ25" t="inlineStr"/>
+      <c r="GK25" t="inlineStr"/>
+      <c r="GL25" t="inlineStr">
+        <is>
+          <t>F_2pWhEHzF4bbuWg3</t>
+        </is>
+      </c>
+      <c r="GM25" t="inlineStr">
+        <is>
+          <t>1759250736391.webm</t>
+        </is>
+      </c>
+      <c r="GN25" t="n">
+        <v>2198536</v>
+      </c>
+      <c r="GO25" t="inlineStr">
+        <is>
+          <t>video/webm</t>
+        </is>
+      </c>
+      <c r="GP25" t="inlineStr">
+        <is>
+          <t>Like, I can say. Like maybe talk. I mean, some topics like maybe movies, like the movie Dragon Trainer, doing Jurassic Park, Godzilla, something like that. Games like Jurassic World Game or even Jurassic World, so I'm really like to try the dinosaur games. But show me this like topics to talk about.</t>
+        </is>
+      </c>
+      <c r="GQ25" t="inlineStr">
+        <is>
+          <t>17592509-82dc-4ed1-ab62-67fa132b8541</t>
+        </is>
+      </c>
+      <c r="GR25" t="inlineStr">
+        <is>
+          <t>Neutral,Positive</t>
+        </is>
+      </c>
+      <c r="GS25" t="inlineStr"/>
+      <c r="GT25" t="inlineStr"/>
+      <c r="GU25" t="inlineStr">
+        <is>
+          <t>F_9GG7gYzOjIcHIKl</t>
+        </is>
+      </c>
+      <c r="GV25" t="inlineStr">
+        <is>
+          <t>1759250779931.webm</t>
+        </is>
+      </c>
+      <c r="GW25" t="n">
+        <v>2076864</v>
+      </c>
+      <c r="GX25" t="inlineStr">
+        <is>
+          <t>video/webm</t>
+        </is>
+      </c>
+      <c r="GY25" t="inlineStr">
+        <is>
+          <t>Johnson disadvantages are like, maybe the refrigerator or like. Sometimes forget what you're talking about. I mean, like, you're talking so much, but then she like doesn't know what you're talking about, what I was talking about earlier. It would be such a disadvantageous for someone. So I think that this should be a little bit fixed for companies for such companies.</t>
+        </is>
+      </c>
+      <c r="GZ25" t="inlineStr">
+        <is>
+          <t>17592509-858e-414e-9add-bcfc290b32b4</t>
+        </is>
+      </c>
+      <c r="HA25" t="inlineStr">
+        <is>
+          <t>Neutral,Negative</t>
+        </is>
+      </c>
+      <c r="HB25" t="inlineStr"/>
+      <c r="HC25" t="inlineStr"/>
+      <c r="HD25" t="inlineStr">
+        <is>
+          <t>F_2q7OyqTrkJDHkeg</t>
+        </is>
+      </c>
+      <c r="HE25" t="inlineStr">
+        <is>
+          <t>1759250836872.webm</t>
+        </is>
+      </c>
+      <c r="HF25" t="n">
+        <v>2462861</v>
+      </c>
+      <c r="HG25" t="inlineStr">
+        <is>
+          <t>video/webm</t>
+        </is>
+      </c>
+      <c r="HH25" t="inlineStr">
+        <is>
+          <t>I would say more dress like sometimes um I talk about something, even talking or even like start talking about something that she didn't ask her. Or even start doing other things. And then for risks, dangers, I don't see anything. Well, I mean, for now, I don't see anything more dangerous. So, I see there are some little risk in front of dangers.</t>
+        </is>
+      </c>
+      <c r="HI25" t="inlineStr">
+        <is>
+          <t>17592509-8721-4ec9-ac0c-eb29cb23d39f</t>
+        </is>
+      </c>
+      <c r="HJ25" t="inlineStr">
+        <is>
+          <t>Neutral,Negative,Positive</t>
+        </is>
+      </c>
+      <c r="HK25" t="inlineStr"/>
+      <c r="HL25" t="inlineStr"/>
+      <c r="HM25" t="inlineStr">
+        <is>
+          <t>F_1ONxLulT4kEQwXq</t>
+        </is>
+      </c>
+      <c r="HN25" t="inlineStr">
+        <is>
+          <t>1759250888332.webm</t>
+        </is>
+      </c>
+      <c r="HO25" t="n">
+        <v>2145265</v>
+      </c>
+      <c r="HP25" t="inlineStr">
+        <is>
+          <t>video/webm</t>
+        </is>
+      </c>
+      <c r="HQ25" t="inlineStr">
+        <is>
+          <t>Because if we're talking like about may have things to say, if we talk about some national borders, it's another trip. Because when you start to talk about your character saying this, then you go on, go on, go on. And you prefer to talk to this retractor and sometimes you will maybe not talk so much to your friends. Or even other's people with your mom and dad same.</t>
+        </is>
+      </c>
+      <c r="HR25" t="inlineStr">
+        <is>
+          <t>17592509-8917-4636-857a-d2bb62db4fe8</t>
+        </is>
+      </c>
+      <c r="HS25" t="inlineStr">
+        <is>
+          <t>Neutral,Negative</t>
+        </is>
+      </c>
+      <c r="HT25" t="inlineStr"/>
+      <c r="HU25" t="inlineStr"/>
+      <c r="HV25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45930.71747685185</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45930.7274537037</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Indirizzo IP</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>37.161.173.93</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>100</v>
+      </c>
+      <c r="F26" t="n">
+        <v>861</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Vero</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>45930.72746621528</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>R_8Qm29f2aTI3GCeZ</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
+        <v>43.1479</v>
+      </c>
+      <c r="O26" t="n">
+        <v>12.1097</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>DECLARE that I have read the Information on the processing of personal data in section A,GIVE CONSENT for Sapienza University of Rome to process my personal data for the purposes and in the manner described therein,AUTHORIZE the Sapienza University of Rome to use my images and/or voice for the creation of videos and multimedia materials, made and used exclusively for scientific research purposes.</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mercy Maribel Ferlazzo </t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>I have received comprehensive explanations regarding the study titled "Changing the Scenery: Eating in Different Environments".,I have reviewed the information note regarding the study in Section A, and have been given the email addresses to contact to receive a copy.,I have been given the email addresses that give me the opportunity to ask questions regarding the study.</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>of the risks and benefits that may arise from participating in this study.,that my participation is voluntary, and that I am free to withdraw at any time without having to provide explanations and without my medical care or rights being affected.</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Mercy Maribel Ferlazzo</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>40+</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Hispanic or Latino or Spanish Origin</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Italy </t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ecuador </t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AR26" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="AS26" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="AU26" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AV26" t="inlineStr">
+        <is>
+          <t>Disagree</t>
+        </is>
+      </c>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr">
+        <is>
+          <t>Totally Disagree</t>
+        </is>
+      </c>
+      <c r="AZ26" t="inlineStr">
+        <is>
+          <t>Totally Agree</t>
+        </is>
+      </c>
+      <c r="BA26" t="inlineStr">
+        <is>
+          <t>Totally Disagree</t>
+        </is>
+      </c>
+      <c r="BB26" t="inlineStr">
+        <is>
+          <t>Totally Disagree</t>
+        </is>
+      </c>
+      <c r="BC26" t="inlineStr">
+        <is>
+          <t>Totally Agree</t>
+        </is>
+      </c>
+      <c r="BD26" t="inlineStr">
+        <is>
+          <t>Totally Disagree</t>
+        </is>
+      </c>
+      <c r="BE26" t="inlineStr">
+        <is>
+          <t>Totally Agree</t>
+        </is>
+      </c>
+      <c r="BF26" t="inlineStr">
+        <is>
+          <t>Totally Disagree</t>
+        </is>
+      </c>
+      <c r="BG26" t="inlineStr">
+        <is>
+          <t>Totally Agree</t>
+        </is>
+      </c>
+      <c r="BH26" t="inlineStr">
+        <is>
+          <t>Nearly Never</t>
+        </is>
+      </c>
+      <c r="BI26" t="inlineStr">
+        <is>
+          <t>Nearly Always</t>
+        </is>
+      </c>
+      <c r="BJ26" t="inlineStr">
+        <is>
+          <t>Sometimes</t>
+        </is>
+      </c>
+      <c r="BK26" t="inlineStr">
+        <is>
+          <t>Nearly Never</t>
+        </is>
+      </c>
+      <c r="BL26" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="BM26" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="BN26" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="BO26" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="BP26" t="inlineStr">
+        <is>
+          <t>Multiple times a day</t>
+        </is>
+      </c>
+      <c r="BQ26" t="inlineStr">
+        <is>
+          <t>1 time a week</t>
+        </is>
+      </c>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>Never</t>
+        </is>
+      </c>
+      <c r="BS26" t="inlineStr">
+        <is>
+          <t>Multiple times a day</t>
+        </is>
+      </c>
+      <c r="BT26" t="inlineStr">
+        <is>
+          <t>Once a day</t>
+        </is>
+      </c>
+      <c r="BU26" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="BV26" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="BW26" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="BX26" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="BY26" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="BZ26" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CA26" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CB26" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="CC26" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="CD26" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CE26" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CF26" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CG26" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CH26" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="CI26" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CJ26" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="CK26" t="inlineStr">
+        <is>
+          <t>Extremely</t>
+        </is>
+      </c>
+      <c r="CL26" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="CM26" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CN26" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CO26" t="inlineStr">
+        <is>
+          <t>Never</t>
+        </is>
+      </c>
+      <c r="CP26" t="inlineStr">
+        <is>
+          <t>Once in a while</t>
+        </is>
+      </c>
+      <c r="CQ26" t="inlineStr">
+        <is>
+          <t>Once in a while</t>
+        </is>
+      </c>
+      <c r="CR26" s="2" t="n">
+        <v>45930.77805555556</v>
+      </c>
+      <c r="CS26" s="2" t="n">
+        <v>45930.7844212963</v>
+      </c>
+      <c r="CT26" t="inlineStr">
+        <is>
+          <t>Indirizzo IP</t>
+        </is>
+      </c>
+      <c r="CU26" t="inlineStr">
+        <is>
+          <t>151.100.189.29</t>
+        </is>
+      </c>
+      <c r="CV26" t="n">
+        <v>100</v>
+      </c>
+      <c r="CW26" t="n">
+        <v>549</v>
+      </c>
+      <c r="CX26" t="inlineStr">
+        <is>
+          <t>Vero</t>
+        </is>
+      </c>
+      <c r="CY26" s="2" t="n">
+        <v>45930.78447313658</v>
+      </c>
+      <c r="CZ26" t="inlineStr">
+        <is>
+          <t>R_8Svox2ll6JNagF2</t>
+        </is>
+      </c>
+      <c r="DA26" t="inlineStr"/>
+      <c r="DB26" t="inlineStr"/>
+      <c r="DC26" t="inlineStr"/>
+      <c r="DD26" t="inlineStr"/>
+      <c r="DE26" t="n">
+        <v>41.8905</v>
+      </c>
+      <c r="DF26" t="n">
+        <v>12.5127</v>
+      </c>
+      <c r="DG26" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="DH26" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="DI26" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="DJ26" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="DK26" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="DL26" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="DM26" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="DN26" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="DO26" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="DP26" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="DQ26" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="DR26" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="DS26" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="DT26" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="DU26" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="DV26" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="DW26" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="DX26" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="DY26" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="DZ26" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="EA26" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="EB26" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="EC26" t="inlineStr"/>
+      <c r="ED26" t="inlineStr"/>
+      <c r="EE26" t="inlineStr"/>
+      <c r="EF26" t="inlineStr"/>
+      <c r="EG26" t="inlineStr"/>
+      <c r="EH26" t="inlineStr"/>
+      <c r="EI26" t="inlineStr"/>
+      <c r="EJ26" t="inlineStr"/>
+      <c r="EK26" t="inlineStr"/>
+      <c r="EL26" t="inlineStr"/>
+      <c r="EM26" t="inlineStr"/>
+      <c r="EN26" t="inlineStr"/>
+      <c r="EO26" t="inlineStr"/>
+      <c r="EP26" t="inlineStr"/>
+      <c r="EQ26" t="inlineStr"/>
+      <c r="ER26" t="inlineStr"/>
+      <c r="ES26" t="inlineStr"/>
+      <c r="ET26" t="inlineStr"/>
+      <c r="EU26" t="inlineStr"/>
+      <c r="EV26" t="inlineStr"/>
+      <c r="EW26" t="inlineStr"/>
+      <c r="EX26" t="inlineStr"/>
+      <c r="EY26" t="inlineStr"/>
+      <c r="EZ26" t="inlineStr"/>
+      <c r="FA26" t="inlineStr"/>
+      <c r="FB26" t="inlineStr"/>
+      <c r="FC26" t="inlineStr"/>
+      <c r="FD26" t="inlineStr"/>
+      <c r="FE26" t="inlineStr"/>
+      <c r="FF26" t="inlineStr"/>
+      <c r="FG26" t="inlineStr"/>
+      <c r="FH26" t="inlineStr"/>
+      <c r="FI26" t="inlineStr"/>
+      <c r="FJ26" t="inlineStr"/>
+      <c r="FK26" t="inlineStr">
+        <is>
+          <t>F_vN4pilexrocYz7P</t>
+        </is>
+      </c>
+      <c r="FL26" t="inlineStr">
+        <is>
+          <t>1759250601088.webm</t>
+        </is>
+      </c>
+      <c r="FM26" t="n">
+        <v>3385729</v>
+      </c>
+      <c r="FN26" t="inlineStr">
+        <is>
+          <t>video/webm</t>
+        </is>
+      </c>
+      <c r="FO26" t="inlineStr">
+        <is>
+          <t>Yeah, I will do again. Why not? I think that it's something new for me. Never trying something like that. Um, I think that that it can give you another chance to a beautiful character.</t>
+        </is>
+      </c>
+      <c r="FP26" t="inlineStr">
+        <is>
+          <t>17592509-8083-4c71-9521-f9014c83fb0b</t>
+        </is>
+      </c>
+      <c r="FQ26" t="inlineStr">
+        <is>
+          <t>Neutral,Very Positive</t>
+        </is>
+      </c>
+      <c r="FR26" t="inlineStr"/>
+      <c r="FS26" t="inlineStr"/>
+      <c r="FT26" t="inlineStr">
+        <is>
+          <t>F_1E0gmwSC1sSZJVX</t>
+        </is>
+      </c>
+      <c r="FU26" t="inlineStr">
+        <is>
+          <t>1759250659009.webm</t>
+        </is>
+      </c>
+      <c r="FV26" t="n">
+        <v>3392404</v>
+      </c>
+      <c r="FW26" t="inlineStr">
+        <is>
+          <t>video/webm</t>
+        </is>
+      </c>
+      <c r="FX26" t="inlineStr">
+        <is>
+          <t>I think it can be useful for people who spend some days in a hospital or in a place where they are alone. They don't have any chance to talk with somebody else. um, so I think that can be a Practice or in any case um be funny if you can talk with someone, OK? So don't be feeling alone.</t>
+        </is>
+      </c>
+      <c r="FY26" t="inlineStr">
+        <is>
+          <t>17592509-804d-4969-a49a-ec8b437ca33f</t>
+        </is>
+      </c>
+      <c r="FZ26" t="inlineStr">
+        <is>
+          <t>Neutral,Negative</t>
+        </is>
+      </c>
+      <c r="GA26" t="inlineStr"/>
+      <c r="GB26" t="inlineStr"/>
+      <c r="GC26" t="inlineStr">
+        <is>
+          <t>F_1jVcYkhtF1MdS3a</t>
+        </is>
+      </c>
+      <c r="GD26" t="inlineStr">
+        <is>
+          <t>1759250728713.webm</t>
+        </is>
+      </c>
+      <c r="GE26" t="n">
+        <v>4333622</v>
+      </c>
+      <c r="GF26" t="inlineStr">
+        <is>
+          <t>video/webm</t>
+        </is>
+      </c>
+      <c r="GG26" t="inlineStr">
+        <is>
+          <t>I think that they could, they could have some more um an active part. I mean, so you can ask something or even talk about, tell something about itself, even if I know that's, it's an artificial character, so it's something that doesn't exist, but it would be nice if it can have, can have a story behind. Uh, so, even if it's just a story, if it's not real, but uh, people it's interesting to know something about who he's talking to.</t>
+        </is>
+      </c>
+      <c r="GH26" t="inlineStr">
+        <is>
+          <t>17592509-81ef-4509-8753-277ed76875c5</t>
+        </is>
+      </c>
+      <c r="GI26" t="inlineStr">
+        <is>
+          <t>Neutral,Negative,Positive</t>
+        </is>
+      </c>
+      <c r="GJ26" t="inlineStr"/>
+      <c r="GK26" t="inlineStr"/>
+      <c r="GL26" t="inlineStr">
+        <is>
+          <t>F_2doJ30G0uYboL9r</t>
+        </is>
+      </c>
+      <c r="GM26" t="inlineStr">
+        <is>
+          <t>1759250786991.webm</t>
+        </is>
+      </c>
+      <c r="GN26" t="n">
+        <v>4214732</v>
+      </c>
+      <c r="GO26" t="inlineStr">
+        <is>
+          <t>video/webm</t>
+        </is>
+      </c>
+      <c r="GP26" t="inlineStr">
+        <is>
+          <t>It could be useful if she could have more topics, uh, such as friendship, uh, um, love. History, um, storytelling in general, not something concerning politics or war because I have very, um, not very, very nice talking about, I think if we go with stuff using, I, I think that it can be useful for people with, uh, time alone so it's not uh a good thing to talk about something that's worth.</t>
+        </is>
+      </c>
+      <c r="GQ26" t="inlineStr">
+        <is>
+          <t>17592509-80b9-4d32-a077-552539c728b7</t>
+        </is>
+      </c>
+      <c r="GR26" t="inlineStr">
+        <is>
+          <t>Neutral,Negative,Very Positive</t>
+        </is>
+      </c>
+      <c r="GS26" t="inlineStr"/>
+      <c r="GT26" t="inlineStr"/>
+      <c r="GU26" t="inlineStr">
+        <is>
+          <t>F_3pg4mJFKNcbCGxo</t>
+        </is>
+      </c>
+      <c r="GV26" t="inlineStr">
+        <is>
+          <t>1759250836823.webm</t>
+        </is>
+      </c>
+      <c r="GW26" t="n">
+        <v>3274985</v>
+      </c>
+      <c r="GX26" t="inlineStr">
+        <is>
+          <t>video/webm</t>
+        </is>
+      </c>
+      <c r="GY26" t="inlineStr">
+        <is>
+          <t>Well, I think that, mm, only thing is if you were, uh, have just a relationship, a relationship, not a common in a common sense, but if you interact just with her, if you so, if you interact with the other people, I think that it can be not a good thing, not a good use of her and I.</t>
+        </is>
+      </c>
+      <c r="GZ26" t="inlineStr">
+        <is>
+          <t>17592509-8053-4906-b86e-96d127ee9b65</t>
+        </is>
+      </c>
+      <c r="HA26" t="inlineStr">
+        <is>
+          <t>Neutral,Negative</t>
+        </is>
+      </c>
+      <c r="HB26" t="inlineStr"/>
+      <c r="HC26" t="inlineStr"/>
+      <c r="HD26" t="inlineStr">
+        <is>
+          <t>F_1i4N2Dx6UXFdGih</t>
+        </is>
+      </c>
+      <c r="HE26" t="inlineStr">
+        <is>
+          <t>1759250883396.webm</t>
+        </is>
+      </c>
+      <c r="HF26" t="n">
+        <v>3276715</v>
+      </c>
+      <c r="HG26" t="inlineStr">
+        <is>
+          <t>video/webm</t>
+        </is>
+      </c>
+      <c r="HH26" t="inlineStr">
+        <is>
+          <t>Uh, can be dangerous if you use it just for the main purpose that is the, uh, to be not, to not feel alone, to have someone to talk to. But, uh, as I said, first, if you have just her as a person to talk to, it can be, um, an isolation as well. So if I'm worse now with a new person.</t>
+        </is>
+      </c>
+      <c r="HI26" t="inlineStr">
+        <is>
+          <t>17592509-80f8-4ef9-bb9d-f708d49cf964</t>
+        </is>
+      </c>
+      <c r="HJ26" t="inlineStr">
+        <is>
+          <t>Neutral,Negative</t>
+        </is>
+      </c>
+      <c r="HK26" t="inlineStr"/>
+      <c r="HL26" t="inlineStr"/>
+      <c r="HM26" t="inlineStr">
+        <is>
+          <t>F_1LnxLivS5OXMg8y</t>
+        </is>
+      </c>
+      <c r="HN26" t="inlineStr">
+        <is>
+          <t>1759250945631.webm</t>
+        </is>
+      </c>
+      <c r="HO26" t="n">
+        <v>3451705</v>
+      </c>
+      <c r="HP26" t="inlineStr">
+        <is>
+          <t>video/webm</t>
+        </is>
+      </c>
+      <c r="HQ26" t="inlineStr">
+        <is>
+          <t>I think, after trying to talk with an I, I think that if you have the possibility to talk with a human person is always the best option. But, um, I know that sometimes it's not possible, so it's a, a good alternative. And um, So, not, not so, not so bad things if you don't have any other possibility to talk with someone. But just use it well.</t>
+        </is>
+      </c>
+      <c r="HR26" t="inlineStr">
+        <is>
+          <t>17592509-80ed-4102-9eee-593a880f6e9b</t>
+        </is>
+      </c>
+      <c r="HS26" t="inlineStr">
+        <is>
+          <t>Neutral,Positive,Very Positive,Negative</t>
+        </is>
+      </c>
+      <c r="HT26" t="inlineStr"/>
+      <c r="HU26" t="inlineStr"/>
+      <c r="HV26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45931.73006944444</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>45931.73521990741</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Indirizzo IP</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>79.46.213.100</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>100</v>
+      </c>
+      <c r="F27" t="n">
+        <v>444</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Vero</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>45931.73523125</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>R_26kYsnB2045eFjC</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
+        <v>41.8905</v>
+      </c>
+      <c r="O27" t="n">
+        <v>12.5127</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>DECLARE that I have read the Information on the processing of personal data in section A,GIVE CONSENT for Sapienza University of Rome to process my personal data for the purposes and in the manner described therein,AUTHORIZE the Sapienza University of Rome to use my images and/or voice for the creation of videos and multimedia materials, made and used exclusively for scientific research purposes.</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">giulia genovese </t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>I have received comprehensive explanations regarding the study titled "Changing the Scenery: Eating in Different Environments".,I have reviewed the information note regarding the study in Section A, and have been given the email addresses to contact to receive a copy.,I have been given the email addresses that give me the opportunity to ask questions regarding the study.</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>of the risks and benefits that may arise from participating in this study.,that my participation is voluntary, and that I am free to withdraw at any time without having to provide explanations and without my medical care or rights being affected.</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">giulia genovese </t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>18-24</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>italy</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>italian</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>I don't remember</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AP27" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AQ27" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AR27" t="inlineStr">
+        <is>
+          <t>Disagree</t>
+        </is>
+      </c>
+      <c r="AS27" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AT27" t="inlineStr">
+        <is>
+          <t>Strongly Agree</t>
+        </is>
+      </c>
+      <c r="AU27" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AV27" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr">
+        <is>
+          <t>Totally Disagree</t>
+        </is>
+      </c>
+      <c r="AZ27" t="inlineStr">
+        <is>
+          <t>Totally Agree</t>
+        </is>
+      </c>
+      <c r="BA27" t="inlineStr">
+        <is>
+          <t>Totally Disagree</t>
+        </is>
+      </c>
+      <c r="BB27" t="inlineStr">
+        <is>
+          <t>Totally Disagree</t>
+        </is>
+      </c>
+      <c r="BC27" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="BD27" t="inlineStr">
+        <is>
+          <t>Totally Disagree</t>
+        </is>
+      </c>
+      <c r="BE27" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="BF27" t="inlineStr">
+        <is>
+          <t>Totally Disagree</t>
+        </is>
+      </c>
+      <c r="BG27" t="inlineStr">
+        <is>
+          <t>Totally Agree</t>
+        </is>
+      </c>
+      <c r="BH27" t="inlineStr">
+        <is>
+          <t>Nearly Always</t>
+        </is>
+      </c>
+      <c r="BI27" t="inlineStr">
+        <is>
+          <t>Sometimes</t>
+        </is>
+      </c>
+      <c r="BJ27" t="inlineStr">
+        <is>
+          <t>Sometimes</t>
+        </is>
+      </c>
+      <c r="BK27" t="inlineStr">
+        <is>
+          <t>Nearly Never</t>
+        </is>
+      </c>
+      <c r="BL27" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="BM27" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="BN27" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="BO27" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="BP27" t="inlineStr">
+        <is>
+          <t>Never</t>
+        </is>
+      </c>
+      <c r="BQ27" t="inlineStr">
+        <is>
+          <t>Multiple times a day</t>
+        </is>
+      </c>
+      <c r="BR27" t="inlineStr">
+        <is>
+          <t>Never</t>
+        </is>
+      </c>
+      <c r="BS27" t="inlineStr">
+        <is>
+          <t>Multiple times a day</t>
+        </is>
+      </c>
+      <c r="BT27" t="inlineStr">
+        <is>
+          <t>Never</t>
+        </is>
+      </c>
+      <c r="BU27" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="BV27" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="BW27" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="BX27" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="BY27" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="BZ27" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CA27" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CB27" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="CC27" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="CD27" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="CE27" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="CF27" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="CG27" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="CH27" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CI27" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CJ27" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CK27" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="CL27" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CM27" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CN27" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CO27" t="inlineStr">
+        <is>
+          <t>Fairly often</t>
+        </is>
+      </c>
+      <c r="CP27" t="inlineStr">
+        <is>
+          <t>Once in a while</t>
+        </is>
+      </c>
+      <c r="CQ27" t="inlineStr">
+        <is>
+          <t>Fairly often</t>
+        </is>
+      </c>
+      <c r="CR27" s="2" t="n">
+        <v>45931.78409722223</v>
+      </c>
+      <c r="CS27" s="2" t="n">
+        <v>45931.79538194444</v>
+      </c>
+      <c r="CT27" t="inlineStr">
+        <is>
+          <t>Indirizzo IP</t>
+        </is>
+      </c>
+      <c r="CU27" t="inlineStr">
+        <is>
+          <t>151.100.200.190</t>
+        </is>
+      </c>
+      <c r="CV27" t="n">
+        <v>100</v>
+      </c>
+      <c r="CW27" t="n">
+        <v>974</v>
+      </c>
+      <c r="CX27" t="inlineStr">
+        <is>
+          <t>Vero</t>
+        </is>
+      </c>
+      <c r="CY27" s="2" t="n">
+        <v>45931.79549928241</v>
+      </c>
+      <c r="CZ27" t="inlineStr">
+        <is>
+          <t>R_2ajYJciCv7Us0kV</t>
+        </is>
+      </c>
+      <c r="DA27" t="inlineStr"/>
+      <c r="DB27" t="inlineStr"/>
+      <c r="DC27" t="inlineStr"/>
+      <c r="DD27" t="inlineStr"/>
+      <c r="DE27" t="n">
+        <v>41.8905</v>
+      </c>
+      <c r="DF27" t="n">
+        <v>12.5127</v>
+      </c>
+      <c r="DG27" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="DH27" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="DI27" t="inlineStr">
+        <is>
+          <t>Extremely</t>
+        </is>
+      </c>
+      <c r="DJ27" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="DK27" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="DL27" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="DM27" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="DN27" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="DO27" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="DP27" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="DQ27" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="DR27" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="DS27" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="DT27" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="DU27" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="DV27" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="DW27" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="DX27" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="DY27" t="inlineStr">
+        <is>
+          <t>Extremely</t>
+        </is>
+      </c>
+      <c r="DZ27" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="EA27" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="EB27" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="EC27" t="inlineStr"/>
+      <c r="ED27" t="inlineStr"/>
+      <c r="EE27" t="inlineStr"/>
+      <c r="EF27" t="inlineStr"/>
+      <c r="EG27" t="inlineStr"/>
+      <c r="EH27" t="inlineStr"/>
+      <c r="EI27" t="inlineStr"/>
+      <c r="EJ27" t="inlineStr"/>
+      <c r="EK27" t="inlineStr"/>
+      <c r="EL27" t="inlineStr"/>
+      <c r="EM27" t="inlineStr"/>
+      <c r="EN27" t="inlineStr"/>
+      <c r="EO27" t="inlineStr"/>
+      <c r="EP27" t="inlineStr"/>
+      <c r="EQ27" t="inlineStr"/>
+      <c r="ER27" t="inlineStr"/>
+      <c r="ES27" t="inlineStr"/>
+      <c r="ET27" t="inlineStr"/>
+      <c r="EU27" t="inlineStr"/>
+      <c r="EV27" t="inlineStr"/>
+      <c r="EW27" t="inlineStr"/>
+      <c r="EX27" t="inlineStr"/>
+      <c r="EY27" t="inlineStr"/>
+      <c r="EZ27" t="inlineStr"/>
+      <c r="FA27" t="inlineStr"/>
+      <c r="FB27" t="inlineStr"/>
+      <c r="FC27" t="inlineStr"/>
+      <c r="FD27" t="inlineStr"/>
+      <c r="FE27" t="inlineStr"/>
+      <c r="FF27" t="inlineStr"/>
+      <c r="FG27" t="inlineStr"/>
+      <c r="FH27" t="inlineStr"/>
+      <c r="FI27" t="inlineStr"/>
+      <c r="FJ27" t="inlineStr"/>
+      <c r="FK27" t="inlineStr">
+        <is>
+          <t>F_5yGQcp7zA7ozLs5</t>
+        </is>
+      </c>
+      <c r="FL27" t="inlineStr">
+        <is>
+          <t>1759337788458.webm</t>
+        </is>
+      </c>
+      <c r="FM27" t="n">
+        <v>2608984</v>
+      </c>
+      <c r="FN27" t="inlineStr">
+        <is>
+          <t>video/webm</t>
+        </is>
+      </c>
+      <c r="FO27" t="inlineStr">
+        <is>
+          <t>OK, so, um, I don't think so. It was a nice experience. But it was also a bit unsettling, so I don't know if it's because it's still in developing, so. It's not quite ready yet, but. Um. I don't know, it felt a bit. Mechanical, not so smooth as a normal human interaction, so I don't think so, actually.</t>
+        </is>
+      </c>
+      <c r="FP27" t="inlineStr">
+        <is>
+          <t>17593383-309a-496b-b230-03f8d0208ab6</t>
+        </is>
+      </c>
+      <c r="FQ27" t="inlineStr">
+        <is>
+          <t>Neutral,Negative,Positive</t>
+        </is>
+      </c>
+      <c r="FR27" t="inlineStr"/>
+      <c r="FS27" t="inlineStr"/>
+      <c r="FT27" t="inlineStr">
+        <is>
+          <t>F_REODWKHRoDYCUHn</t>
+        </is>
+      </c>
+      <c r="FU27" t="inlineStr">
+        <is>
+          <t>1759337910857.webm</t>
+        </is>
+      </c>
+      <c r="FV27" t="n">
+        <v>2325698</v>
+      </c>
+      <c r="FW27" t="inlineStr">
+        <is>
+          <t>video/webm</t>
+        </is>
+      </c>
+      <c r="FX27" t="inlineStr">
+        <is>
+          <t>So I think it would be useful in those context where there's no chance at all to have a real human interaction, so it's rather than nothing I guess. So like, I don't know people in a long term illness facility. Or um. Maybe old people, they are really alone. That's, that's my my answer.</t>
+        </is>
+      </c>
+      <c r="FY27" t="inlineStr">
+        <is>
+          <t>17593383-2858-4287-a8c0-0880d22e289f</t>
+        </is>
+      </c>
+      <c r="FZ27" t="inlineStr">
+        <is>
+          <t>Neutral,Negative,Positive</t>
+        </is>
+      </c>
+      <c r="GA27" t="inlineStr"/>
+      <c r="GB27" t="inlineStr"/>
+      <c r="GC27" t="inlineStr">
+        <is>
+          <t>F_eP248dUgcCxMmGZ</t>
+        </is>
+      </c>
+      <c r="GD27" t="inlineStr">
+        <is>
+          <t>1759338003198.webm</t>
+        </is>
+      </c>
+      <c r="GE27" t="n">
+        <v>3544373</v>
+      </c>
+      <c r="GF27" t="inlineStr">
+        <is>
+          <t>video/webm</t>
+        </is>
+      </c>
+      <c r="GG27" t="inlineStr">
+        <is>
+          <t>So I think the most important thing would be to Be able to process the information. Quickly to provide an answer. As quickly as possible and Mm. Be consistent, so. Yeah, so I think that the most important thing is the, like the conversational aspect of it. Not to be interrupted or to have to overexplain yourself or to wait a lot of time before getting an answer back.</t>
+        </is>
+      </c>
+      <c r="GH27" t="inlineStr">
+        <is>
+          <t>17593383-31c8-4818-8bd3-dcabbd20a55c</t>
+        </is>
+      </c>
+      <c r="GI27" t="inlineStr">
+        <is>
+          <t>Neutral,Positive,Negative</t>
+        </is>
+      </c>
+      <c r="GJ27" t="inlineStr"/>
+      <c r="GK27" t="inlineStr"/>
+      <c r="GL27" t="inlineStr">
+        <is>
+          <t>F_TedBSqYS5b2GpPz</t>
+        </is>
+      </c>
+      <c r="GM27" t="inlineStr">
+        <is>
+          <t>1759338049036.webm</t>
+        </is>
+      </c>
+      <c r="GN27" t="n">
+        <v>2484491</v>
+      </c>
+      <c r="GO27" t="inlineStr">
+        <is>
+          <t>video/webm</t>
+        </is>
+      </c>
+      <c r="GP27" t="inlineStr">
+        <is>
+          <t>Um, I don't know, I think it should be able to talk about uh. Large set of topic in order to. Be appealing to Whoever it's talking to so um. Yeah, I mean. I don't know. I, I don't think there are topics that are off limits, um, so I would say. The more the better.</t>
+        </is>
+      </c>
+      <c r="GQ27" t="inlineStr">
+        <is>
+          <t>17593383-284e-421f-a482-dba0747b8672</t>
+        </is>
+      </c>
+      <c r="GR27" t="inlineStr">
+        <is>
+          <t>Neutral,Negative</t>
+        </is>
+      </c>
+      <c r="GS27" t="inlineStr"/>
+      <c r="GT27" t="inlineStr"/>
+      <c r="GU27" t="inlineStr">
+        <is>
+          <t>F_wXGZw8P4z3x59O9</t>
+        </is>
+      </c>
+      <c r="GV27" t="inlineStr">
+        <is>
+          <t>1759338139448.webm</t>
+        </is>
+      </c>
+      <c r="GW27" t="n">
+        <v>5482055</v>
+      </c>
+      <c r="GX27" t="inlineStr">
+        <is>
+          <t>video/webm</t>
+        </is>
+      </c>
+      <c r="GY27" t="inlineStr">
+        <is>
+          <t>Um, so I, I don't know. I think that the disadvantages could be. Kind of similar to the so-called AI psychosis, so people that spent a lot of time. And um, Kind of in an echo chamber, like receiving the same sort of information and being fed on their delusion. I think that for people that are already experiencing some kind of delusion that could be harmful, but actually, I didn't find the avatar to be um. Mm. That way at all, so. It wasn't like always agreeing with what I was saying or stuff like that, so. Mm, I don't think it's a risk for this, this type of avatar.</t>
+        </is>
+      </c>
+      <c r="GZ27" t="inlineStr">
+        <is>
+          <t>17593383-3391-4d96-aedd-b98165c5d385</t>
+        </is>
+      </c>
+      <c r="HA27" t="inlineStr">
+        <is>
+          <t>Neutral,Negative,Positive</t>
+        </is>
+      </c>
+      <c r="HB27" t="inlineStr"/>
+      <c r="HC27" t="inlineStr"/>
+      <c r="HD27" t="inlineStr">
+        <is>
+          <t>F_QgKaxVvbUCss6Vb</t>
+        </is>
+      </c>
+      <c r="HE27" t="inlineStr">
+        <is>
+          <t>1759338185691.webm</t>
+        </is>
+      </c>
+      <c r="HF27" t="n">
+        <v>2285458</v>
+      </c>
+      <c r="HG27" t="inlineStr">
+        <is>
+          <t>video/webm</t>
+        </is>
+      </c>
+      <c r="HH27" t="inlineStr">
+        <is>
+          <t>Um, yeah, as I, as I said before, I, I do think that there may be some risk, some risks, especially for people that are already in a fragile state of mind, but I don't think that's the majority of people and. I also think that this could be like it's not a necessity, it could easily be. Corrected, so not really at the.</t>
+        </is>
+      </c>
+      <c r="HI27" t="inlineStr">
+        <is>
+          <t>17593383-295f-41f2-9d53-9ca7caa2202d</t>
+        </is>
+      </c>
+      <c r="HJ27" t="inlineStr">
+        <is>
+          <t>Neutral,Negative,Positive</t>
+        </is>
+      </c>
+      <c r="HK27" t="inlineStr"/>
+      <c r="HL27" t="inlineStr"/>
+      <c r="HM27" t="inlineStr">
+        <is>
+          <t>F_3DqnqvJ7xwTeJtF</t>
+        </is>
+      </c>
+      <c r="HN27" t="inlineStr">
+        <is>
+          <t>1759338305979.webm</t>
+        </is>
+      </c>
+      <c r="HO27" t="n">
+        <v>3598676</v>
+      </c>
+      <c r="HP27" t="inlineStr">
+        <is>
+          <t>video/webm</t>
+        </is>
+      </c>
+      <c r="HQ27" t="inlineStr">
+        <is>
+          <t>Yeah, so I don't think the last 30 minutes affected my sense of connection to others at all, but it's also true that I was in a Like social situation beforehand, I was strolling with a friend and talking to him and I spent the last couple of hours interacting with one of my students, so mm I wasn't feeling disconnected. Maybe if I, if I had, it would be different, um, I don't know. I feel a bit. Mm. More self-conscious in a way. So that's all.</t>
+        </is>
+      </c>
+      <c r="HR27" t="inlineStr">
+        <is>
+          <t>17593383-3091-41b4-a48d-42034b1c7789</t>
+        </is>
+      </c>
+      <c r="HS27" t="inlineStr">
+        <is>
+          <t>Neutral,Negative</t>
+        </is>
+      </c>
+      <c r="HT27" t="inlineStr"/>
+      <c r="HU27" t="inlineStr"/>
+      <c r="HV27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45932.44034722223</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>45932.44854166666</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Indirizzo IP</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>87.11.236.116</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>100</v>
+      </c>
+      <c r="F28" t="n">
+        <v>707</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Vero</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>45932.44855217593</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>R_2ON624JzKMdv74X</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
+        <v>41.8905</v>
+      </c>
+      <c r="O28" t="n">
+        <v>12.5127</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>DECLARE that I have read the Information on the processing of personal data in section A,GIVE CONSENT for Sapienza University of Rome to process my personal data for the purposes and in the manner described therein,AUTHORIZE the Sapienza University of Rome to use my images and/or voice for the creation of videos and multimedia materials, made and used exclusively for scientific research purposes.</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valerio Quartullo </t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>I have received comprehensive explanations regarding the study titled "Changing the Scenery: Eating in Different Environments".,I have reviewed the information note regarding the study in Section A, and have been given the email addresses to contact to receive a copy.,I have been given the email addresses that give me the opportunity to ask questions regarding the study.</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>of the risks and benefits that may arise from participating in this study.,that my participation is voluntary, and that I am free to withdraw at any time without having to provide explanations and without my medical care or rights being affected.</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valerio Quartullo </t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>35-39</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Italy </t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Italy </t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AN28" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AP28" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AQ28" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AR28" t="inlineStr">
+        <is>
+          <t>Disagree</t>
+        </is>
+      </c>
+      <c r="AS28" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AT28" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AU28" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AV28" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Agree</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Totally Disagree</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr">
+        <is>
+          <t>Totally Disagree</t>
+        </is>
+      </c>
+      <c r="AZ28" t="inlineStr">
+        <is>
+          <t>Totally Agree</t>
+        </is>
+      </c>
+      <c r="BA28" t="inlineStr">
+        <is>
+          <t>Totally Disagree</t>
+        </is>
+      </c>
+      <c r="BB28" t="inlineStr">
+        <is>
+          <t>Totally Disagree</t>
+        </is>
+      </c>
+      <c r="BC28" t="inlineStr">
+        <is>
+          <t>Totally Agree</t>
+        </is>
+      </c>
+      <c r="BD28" t="inlineStr">
+        <is>
+          <t>Totally Disagree</t>
+        </is>
+      </c>
+      <c r="BE28" t="inlineStr">
+        <is>
+          <t>Totally Agree</t>
+        </is>
+      </c>
+      <c r="BF28" t="inlineStr">
+        <is>
+          <t>Totally Disagree</t>
+        </is>
+      </c>
+      <c r="BG28" t="inlineStr">
+        <is>
+          <t>Totally Agree</t>
+        </is>
+      </c>
+      <c r="BH28" t="inlineStr">
+        <is>
+          <t>Nearly Never</t>
+        </is>
+      </c>
+      <c r="BI28" t="inlineStr">
+        <is>
+          <t>Nearly Always</t>
+        </is>
+      </c>
+      <c r="BJ28" t="inlineStr">
+        <is>
+          <t>Often</t>
+        </is>
+      </c>
+      <c r="BK28" t="inlineStr">
+        <is>
+          <t>Nearly Never</t>
+        </is>
+      </c>
+      <c r="BL28" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="BM28" t="inlineStr">
+        <is>
+          <t>Neither Agree nor Disagree</t>
+        </is>
+      </c>
+      <c r="BN28" t="inlineStr">
+        <is>
+          <t>Somewhat Disagree</t>
+        </is>
+      </c>
+      <c r="BO28" t="inlineStr">
+        <is>
+          <t>Somewhat Agree</t>
+        </is>
+      </c>
+      <c r="BP28" t="inlineStr">
+        <is>
+          <t>Never</t>
+        </is>
+      </c>
+      <c r="BQ28" t="inlineStr">
+        <is>
+          <t>Multiple times a day</t>
+        </is>
+      </c>
+      <c r="BR28" t="inlineStr">
+        <is>
+          <t>2 to 3 times a week</t>
+        </is>
+      </c>
+      <c r="BS28" t="inlineStr">
+        <is>
+          <t>Multiple times a day</t>
+        </is>
+      </c>
+      <c r="BT28" t="inlineStr">
+        <is>
+          <t>2 to 3 times a week</t>
+        </is>
+      </c>
+      <c r="BU28" t="inlineStr">
+        <is>
+          <t>Extremely</t>
+        </is>
+      </c>
+      <c r="BV28" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="BW28" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="BX28" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="BY28" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="BZ28" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CA28" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CB28" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="CC28" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CD28" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CE28" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CF28" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CG28" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CH28" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CI28" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CJ28" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CK28" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CL28" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CM28" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="CN28" t="inlineStr">
+        <is>
+          <t>A little</t>
+        </is>
+      </c>
+      <c r="CO28" t="inlineStr">
+        <is>
+          <t>Once in a while</t>
+        </is>
+      </c>
+      <c r="CP28" t="inlineStr">
+        <is>
+          <t>Once in a while</t>
+        </is>
+      </c>
+      <c r="CQ28" t="inlineStr">
+        <is>
+          <t>Never</t>
+        </is>
+      </c>
+      <c r="CR28" s="2" t="n">
+        <v>45932.51518518518</v>
+      </c>
+      <c r="CS28" s="2" t="n">
+        <v>45932.5259375</v>
+      </c>
+      <c r="CT28" t="inlineStr">
+        <is>
+          <t>Indirizzo IP</t>
+        </is>
+      </c>
+      <c r="CU28" t="inlineStr">
+        <is>
+          <t>151.100.200.190</t>
+        </is>
+      </c>
+      <c r="CV28" t="n">
+        <v>100</v>
+      </c>
+      <c r="CW28" t="n">
+        <v>929</v>
+      </c>
+      <c r="CX28" t="inlineStr">
+        <is>
+          <t>Vero</t>
+        </is>
+      </c>
+      <c r="CY28" s="2" t="n">
+        <v>45932.52599517361</v>
+      </c>
+      <c r="CZ28" t="inlineStr">
+        <is>
+          <t>R_2pjfbey2PWK2so1</t>
+        </is>
+      </c>
+      <c r="DA28" t="inlineStr"/>
+      <c r="DB28" t="inlineStr"/>
+      <c r="DC28" t="inlineStr"/>
+      <c r="DD28" t="inlineStr"/>
+      <c r="DE28" t="n">
+        <v>41.8905</v>
+      </c>
+      <c r="DF28" t="n">
+        <v>12.5127</v>
+      </c>
+      <c r="DG28" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="DH28" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="DI28" t="inlineStr">
+        <is>
+          <t>Extremely</t>
+        </is>
+      </c>
+      <c r="DJ28" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="DK28" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="DL28" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="DM28" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="DN28" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="DO28" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="DP28" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="DQ28" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="DR28" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="DS28" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="DT28" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="DU28" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="DV28" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="DW28" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="DX28" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="DY28" t="inlineStr">
+        <is>
+          <t>Quite a bit</t>
+        </is>
+      </c>
+      <c r="DZ28" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="EA28" t="inlineStr">
+        <is>
+          <t>Moderately</t>
+        </is>
+      </c>
+      <c r="EB28" t="inlineStr">
+        <is>
+          <t>Very slightly or not at all</t>
+        </is>
+      </c>
+      <c r="EC28" t="inlineStr"/>
+      <c r="ED28" t="inlineStr"/>
+      <c r="EE28" t="inlineStr"/>
+      <c r="EF28" t="inlineStr"/>
+      <c r="EG28" t="inlineStr"/>
+      <c r="EH28" t="inlineStr"/>
+      <c r="EI28" t="inlineStr"/>
+      <c r="EJ28" t="inlineStr"/>
+      <c r="EK28" t="inlineStr"/>
+      <c r="EL28" t="inlineStr"/>
+      <c r="EM28" t="inlineStr"/>
+      <c r="EN28" t="inlineStr"/>
+      <c r="EO28" t="inlineStr"/>
+      <c r="EP28" t="inlineStr"/>
+      <c r="EQ28" t="inlineStr"/>
+      <c r="ER28" t="inlineStr"/>
+      <c r="ES28" t="inlineStr"/>
+      <c r="ET28" t="inlineStr"/>
+      <c r="EU28" t="inlineStr"/>
+      <c r="EV28" t="inlineStr"/>
+      <c r="EW28" t="inlineStr"/>
+      <c r="EX28" t="inlineStr"/>
+      <c r="EY28" t="inlineStr"/>
+      <c r="EZ28" t="inlineStr"/>
+      <c r="FA28" t="inlineStr"/>
+      <c r="FB28" t="inlineStr"/>
+      <c r="FC28" t="inlineStr"/>
+      <c r="FD28" t="inlineStr"/>
+      <c r="FE28" t="inlineStr"/>
+      <c r="FF28" t="inlineStr"/>
+      <c r="FG28" t="inlineStr"/>
+      <c r="FH28" t="inlineStr"/>
+      <c r="FI28" t="inlineStr"/>
+      <c r="FJ28" t="inlineStr"/>
+      <c r="FK28" t="inlineStr">
+        <is>
+          <t>F_3EETeQluJ37zlLo</t>
+        </is>
+      </c>
+      <c r="FL28" t="inlineStr">
+        <is>
+          <t>1759401046602.webm</t>
+        </is>
+      </c>
+      <c r="FM28" t="n">
+        <v>3098163</v>
+      </c>
+      <c r="FN28" t="inlineStr">
+        <is>
+          <t>video/webm</t>
+        </is>
+      </c>
+      <c r="FO28" t="inlineStr">
+        <is>
+          <t>Yes, I would dine again with a virtual character. It was uh an interesting experience and basically I don't like to, to, to eat alone, so I think it could be um a good alternative than eating alone and um. The. Yes, it's, it's, it was something to do while eating so you can uh talk to someone else and talk about everything and it could be interesting to do it again.</t>
+        </is>
+      </c>
+      <c r="FP28" t="inlineStr">
+        <is>
+          <t>17594014-4832-46f0-ab2c-761455b2be5d</t>
+        </is>
+      </c>
+      <c r="FQ28" t="inlineStr">
+        <is>
+          <t>Neutral,Positive,Very Positive</t>
+        </is>
+      </c>
+      <c r="FR28" t="inlineStr"/>
+      <c r="FS28" t="inlineStr"/>
+      <c r="FT28" t="inlineStr">
+        <is>
+          <t>F_3G7Iu8MWZkV8aEm</t>
+        </is>
+      </c>
+      <c r="FU28" t="inlineStr">
+        <is>
+          <t>1759401093983.webm</t>
+        </is>
+      </c>
+      <c r="FV28" t="n">
+        <v>2712178</v>
+      </c>
+      <c r="FW28" t="inlineStr">
+        <is>
+          <t>video/webm</t>
+        </is>
+      </c>
+      <c r="FX28" t="inlineStr">
+        <is>
+          <t>It could be uh useful when someone is alone, when someone has problems to eat alone or just doesn't want to, um, I don't like to eat alone, so if I had someone to talk to, even if a virtual companion, I would do it and to people who doesn't like to to felt alone, so I think it could be useful in many situations and. I could use it more uh again and again too.</t>
+        </is>
+      </c>
+      <c r="FY28" t="inlineStr">
+        <is>
+          <t>17594014-4633-47a4-bfb9-05d3b522f5c6</t>
+        </is>
+      </c>
+      <c r="FZ28" t="inlineStr">
+        <is>
+          <t>Neutral,Negative</t>
+        </is>
+      </c>
+      <c r="GA28" t="inlineStr"/>
+      <c r="GB28" t="inlineStr"/>
+      <c r="GC28" t="inlineStr">
+        <is>
+          <t>F_2eRugnMkqmL8LuP</t>
+        </is>
+      </c>
+      <c r="GD28" t="inlineStr">
+        <is>
+          <t>1759401152825.webm</t>
+        </is>
+      </c>
+      <c r="GE28" t="n">
+        <v>3544927</v>
+      </c>
+      <c r="GF28" t="inlineStr">
+        <is>
+          <t>video/webm</t>
+        </is>
+      </c>
+      <c r="GG28" t="inlineStr">
+        <is>
+          <t>Uh, the most important capabilities, I think there should be empathy and, uh, the, the virtual virtual uh companion should, uh, uh, should be interested in what you're saying and trying to expand what you're saying and maybe uh. Using the knowledge to, to, to, to say something more on about what are you, are you talking to and maybe some questions about yourself or what have you done or what you like and things like that. I think that, yeah, the, the, the thing that has to be responsive and ask questions or expand on those questions.</t>
+        </is>
+      </c>
+      <c r="GH28" t="inlineStr">
+        <is>
+          <t>17594014-48fb-4a98-9ed1-687d4be5495d</t>
+        </is>
+      </c>
+      <c r="GI28" t="inlineStr">
+        <is>
+          <t>Neutral,Negative</t>
+        </is>
+      </c>
+      <c r="GJ28" t="inlineStr"/>
+      <c r="GK28" t="inlineStr"/>
+      <c r="GL28" t="inlineStr">
+        <is>
+          <t>F_2zSxC3k0u5CvnrP</t>
+        </is>
+      </c>
+      <c r="GM28" t="inlineStr">
+        <is>
+          <t>1759401254390.webm</t>
+        </is>
+      </c>
+      <c r="GN28" t="n">
+        <v>2497918</v>
+      </c>
+      <c r="GO28" t="inlineStr">
+        <is>
+          <t>video/webm</t>
+        </is>
+      </c>
+      <c r="GP28" t="inlineStr">
+        <is>
+          <t>I think there should be uh small talks, so I don't know like movies, TV, books, or maybe the weather, sometimes even some lightly politics topics, but I think it's better than personal stuff. Uh, but I, I, I, I understand if someone wants to talk about personal stuff, but I don't know if a virtual character can, with your companion can answer to this, these kind of questions.</t>
+        </is>
+      </c>
+      <c r="GQ28" t="inlineStr">
+        <is>
+          <t>17594014-4677-48d8-a916-789714e1b04c</t>
+        </is>
+      </c>
+      <c r="GR28" t="inlineStr">
+        <is>
+          <t>Neutral,Negative,Mixed</t>
+        </is>
+      </c>
+      <c r="GS28" t="inlineStr"/>
+      <c r="GT28" t="inlineStr"/>
+      <c r="GU28" t="inlineStr">
+        <is>
+          <t>F_1E1eKPeFHQcGgsg</t>
+        </is>
+      </c>
+      <c r="GV28" t="inlineStr">
+        <is>
+          <t>1759401309160.webm</t>
+        </is>
+      </c>
+      <c r="GW28" t="n">
+        <v>3106633</v>
+      </c>
+      <c r="GX28" t="inlineStr">
+        <is>
+          <t>video/webm</t>
+        </is>
+      </c>
+      <c r="GY28" t="inlineStr">
+        <is>
+          <t>Uh, the disadvantages they could be to to alienate yourself from, from other people, and you could rely only on companions and not, uh, on other people and not be in company with other people. I don't think that's. A real danger or maybe it is, but I think uh the companions should be for people who cannot see other people who cannot relate to other people for some reason, so they could be an an aid but not the. Our usual experience.</t>
+        </is>
+      </c>
+      <c r="GZ28" t="inlineStr">
+        <is>
+          <t>17594014-4833-48d0-9726-e71803b5cb4e</t>
+        </is>
+      </c>
+      <c r="HA28" t="inlineStr">
+        <is>
+          <t>Neutral,Negative</t>
+        </is>
+      </c>
+      <c r="HB28" t="inlineStr"/>
+      <c r="HC28" t="inlineStr"/>
+      <c r="HD28" t="inlineStr">
+        <is>
+          <t>F_24cSmHpgm37jCyp</t>
+        </is>
+      </c>
+      <c r="HE28" t="inlineStr">
+        <is>
+          <t>1759401374694.webm</t>
+        </is>
+      </c>
+      <c r="HF28" t="n">
+        <v>2573312</v>
+      </c>
+      <c r="HG28" t="inlineStr">
+        <is>
+          <t>video/webm</t>
+        </is>
+      </c>
+      <c r="HH28" t="inlineStr">
+        <is>
+          <t>The risks are that people alienate themselves from the world and start to connect only uh through this virtual companion and to, to remove themselves from the company of other humans and not companions so I think that's, that could be a risk and but I think um if I think it's a risk that's dangerous that. And for very few people. I don't think that could be a really danger.</t>
+        </is>
+      </c>
+      <c r="HI28" t="inlineStr">
+        <is>
+          <t>17594014-47a9-4ffb-b3d3-8af8eabd532c</t>
+        </is>
+      </c>
+      <c r="HJ28" t="inlineStr">
+        <is>
+          <t>Neutral,Negative</t>
+        </is>
+      </c>
+      <c r="HK28" t="inlineStr"/>
+      <c r="HL28" t="inlineStr"/>
+      <c r="HM28" t="inlineStr">
+        <is>
+          <t>F_9BIm2wrnBA20CaJ</t>
+        </is>
+      </c>
+      <c r="HN28" t="inlineStr">
+        <is>
+          <t>1759401423644.webm</t>
+        </is>
+      </c>
+      <c r="HO28" t="n">
+        <v>2942070</v>
+      </c>
+      <c r="HP28" t="inlineStr">
+        <is>
+          <t>video/webm</t>
+        </is>
+      </c>
+      <c r="HQ28" t="inlineStr">
+        <is>
+          <t>I don't think the last 30 minutes affected my sense of connection to the others. I'd like this experiment to talk to a virtual companion, and I think that it's something that can improve your meals or your everyday life when you're alone, but, uh, I didn't think that affected my sense of connection to the others. It was just, uh. I think that I did and maybe the repetitive use of this kind of interaction can affect the sense of connection to the others, but it didn't for me.</t>
+        </is>
+      </c>
+      <c r="HR28" t="inlineStr">
+        <is>
+          <t>17594014-4777-448f-a8b8-7169ce68d2bd</t>
+        </is>
+      </c>
+      <c r="HS28" t="inlineStr">
+        <is>
+          <t>Neutral,Negative</t>
+        </is>
+      </c>
+      <c r="HT28" t="inlineStr"/>
+      <c r="HU28" t="inlineStr"/>
+      <c r="HV28" t="inlineStr">
         <is>
           <t>No</t>
         </is>
